--- a/res/tweet.xlsx
+++ b/res/tweet.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,5023 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="n">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="n">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="n">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="n">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="n">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="n">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="n">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="n">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="n">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="n">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="n">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="n">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="n">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="n">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="n">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="n">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="n">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="n">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="n">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="n">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="n">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="n">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="n">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="n">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="n">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="n">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="n">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="n">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="n">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="n">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="n">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="n">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="n">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="n">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="n">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="n">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="n">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="n">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="n">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="n">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="n">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="n">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="n">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="n">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="n">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="n">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="n">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="n">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="n">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="n">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="n">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="n">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="n">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="n">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="n">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="n">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="n">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="n">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="n">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="n">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="n">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="n">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="n">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="n">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="n">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="n">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="n">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="n">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="n">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="n">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="n">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="n">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="n">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="n">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="n">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="n">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="n">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="n">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="n">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="n">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="n">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="n">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="n">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="n">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="n">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="n">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="n">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="n">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="n">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="n">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="n">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="n">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="n">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="n">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="n">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="n">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="n">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="n">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="n">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="n">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="n">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="n">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="n">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="n">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="n">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="n">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="n">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="n">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="n">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="n">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="n">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="n">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="n">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="n">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="n">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="n">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="n">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="n">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="n">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="n">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="n">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="n">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="n">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="n">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="n">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="n">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="n">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="n">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="n">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="n">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="n">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="n">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="n">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="n">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="n">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="n">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="n">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="n">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="n">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="n">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="n">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="n">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="n">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="n">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="n">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="n">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="n">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="n">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="n">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="n">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="n">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="n">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="n">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="n">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="n">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="n">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="n">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="n">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="n">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="n">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="n">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="n">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="n">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="n">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="n">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="n">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="n">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="n">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="n">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="n">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="n">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="n">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="n">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="n">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="n">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="n">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="n">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="n">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="n">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="n">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="n">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="n">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="n">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="n">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="n">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="n">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="n">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="n">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="n">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="n">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="n">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="n">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="n">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="n">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="n">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="n">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="n">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="n">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="n">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="n">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="n">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="n">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="n">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="n">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="n">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="n">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="n">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="n">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="n">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="n">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="n">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="n">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="n">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="n">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="n">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="n">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="n">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="1" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="n">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="n">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="1" t="n">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="1" t="n">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="1" t="n">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="1" t="n">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="1" t="n">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="1" t="n">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="1" t="n">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="1" t="n">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="1" t="n">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="1" t="n">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="1" t="n">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="1" t="n">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="1" t="n">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="1" t="n">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="1" t="n">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="1" t="n">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="1" t="n">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="1" t="n">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="1" t="n">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="1" t="n">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="1" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="n">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="n">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="n">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="n">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="n">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="n">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="1" t="n">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="1" t="n">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="n">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="n">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="1" t="n">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="n">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="1" t="n">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="1" t="n">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="1" t="n">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="1" t="n">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="1" t="n">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="1" t="n">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="1" t="n">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="1" t="n">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="1" t="n">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="1" t="n">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="1" t="n">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="1" t="n">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="1" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="1" t="n">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="1" t="n">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="1" t="n">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="1" t="n">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="1" t="n">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="1" t="n">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="1" t="n">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="1" t="n">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" s="1" t="n">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="1" t="n">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" s="1" t="n">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="1" t="n">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="1" t="n">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" s="1" t="n">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" s="1" t="n">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" s="1" t="n">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="1" t="n">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" s="1" t="n">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="1" t="n">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="1" t="n">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" s="1" t="n">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" s="1" t="n">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" s="1" t="n">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="1" t="n">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="1" t="n">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="1" t="n">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="1" t="n">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="1" t="n">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="1" t="n">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" s="1" t="n">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="1" t="n">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="1" t="n">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="1" t="n">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="1" t="n">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="1" t="n">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="1" t="n">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="1" t="n">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" s="1" t="n">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" s="1" t="n">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" s="1" t="n">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" s="1" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" s="1" t="n">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" s="1" t="n">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" s="1" t="n">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" s="1" t="n">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" s="1" t="n">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" s="1" t="n">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" s="1" t="n">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" s="1" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" s="1" t="n">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" s="1" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" s="1" t="n">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" s="1" t="n">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" s="1" t="n">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" s="1" t="n">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" s="1" t="n">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" s="1" t="n">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" s="1" t="n">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" s="1" t="n">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" s="1" t="n">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" s="1" t="n">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" s="1" t="n">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" s="1" t="n">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" s="1" t="n">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" s="1" t="n">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" s="1" t="n">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" s="1" t="n">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" s="1" t="n">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" s="1" t="n">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" s="1" t="n">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" s="1" t="n">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" s="1" t="n">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" s="1" t="n">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" s="1" t="n">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" s="1" t="n">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" s="1" t="n">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" s="1" t="n">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" s="1" t="n">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" s="1" t="n">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" s="1" t="n">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" s="1" t="n">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" s="1" t="n">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" s="1" t="n">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" s="1" t="n">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" s="1" t="n">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" s="1" t="n">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" s="1" t="n">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" s="1" t="n">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" s="1" t="n">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" s="1" t="n">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" s="1" t="n">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" s="1" t="n">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" s="1" t="n">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" s="1" t="n">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" s="1" t="n">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" s="1" t="n">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" s="1" t="n">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" s="1" t="n">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" s="1" t="n">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" s="1" t="n">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" s="1" t="n">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" s="1" t="n">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" s="1" t="n">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" s="1" t="n">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" s="1" t="n">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" s="1" t="n">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" s="1" t="n">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" s="1" t="n">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" s="1" t="n">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" s="1" t="n">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" s="1" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" s="1" t="n">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" s="1" t="n">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" s="1" t="n">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" s="1" t="n">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" s="1" t="n">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" s="1" t="n">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" s="1" t="n">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" s="1" t="n">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" s="1" t="n">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" s="1" t="n">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" s="1" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" s="1" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" s="1" t="n">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" s="1" t="n">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" s="1" t="n">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" s="1" t="n">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" s="1" t="n">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" s="1" t="n">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" s="1" t="n">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" s="1" t="n">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" s="1" t="n">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" s="1" t="n">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" s="1" t="n">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" s="1" t="n">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" s="1" t="n">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" s="1" t="n">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" s="1" t="n">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" s="1" t="n">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" s="1" t="n">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" s="1" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" s="1" t="n">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" s="1" t="n">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" s="1" t="n">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" s="1" t="n">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" s="1" t="n">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" s="1" t="n">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" s="1" t="n">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="1" t="n">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="1" t="n">
+        <v>999</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/res/tweet.xlsx
+++ b/res/tweet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1001"/>
+  <dimension ref="A1:B775"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,5011 +434,8121 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Content</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>@calgaryherald @financialpost they had to hault trading of about 30 banks today on the stock markets some with 65% loss at the open,there is about 10 other banks ready to collapse this week,with the SVB fdic bail out the FDIC is pretty much bankrupt now so no more deposit insurance when the other banks fail</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>How Does the Collapse of Silicon Valley Bank Impact Housing? 
+SVB has closed its doors. What is that going to mean for real estate Buyers and Sellers and the NJ housing market? 
+Right now, the New Jersey real estate market in Bergen County has been thri…lnkd.in/gP-9RqYt</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>@TRUExDEMON @HeYougeNuts56 It’s still detrimental to the American public. They’re being made whole by the Fed fronting deposits on SVB assets, assuming they’ll get enough to cover the 160+ B they lost. If not, mo money printed and inflation keeps on going up. 
+I say let shit play out like it’s supposed to.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Today Biden steps in to save SVB... looks into the camera and says he is not using a dim of tax payer money ... he must be confused as government has no money other than tax payers money!</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1) ✅ they leaked "slow down of rates" 😂😂
+2) ✅ im calling SVB stock down 60+% as a bank run
+3) ❌ glad i was wrong about this. Tech stocks started the slip this morning but stayed near open after early morning 
+4) ✅ Biden's "Whatever needed" quote knocked this out of the park</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>@TheUmgawa @_youre_annoying @CraigHarrigan1 @AnthonyWapow You just lied by deception.
+3% of the money in SVB is deposits.  ALL deposits of 250k and under are covered by FDIC.  Normal.
+Stop dancing and address the real issue.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>@WhiteHouse Why lie? Even Barney Frank said 2018 Dodd-Frank reforms had zero to do w/ current bank situation; revisions were to small banks (&amp;lt;$600M) not SVB, a GPS bank. Why did SVB buy LT T-bills in an inflationary environment? Wasn't this an anticipated regulatory concern with rate hikes?</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>@UtahPigBus You are spot on for shareholders/SVB execs. They are wiped out, no bailout. If CEO sold stock, he may wear orange soon. Many reputable companies deposited hard earned money, normal people expecting payroll incl 8k at SVB. Those companies/people are innocent &amp;amp; needed protection:)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>@CrunchOps @CGasparino @WhiteHouse @JoeBiden @federalreserve Also, a lot of depositors at SVB have deposits at SVB in exchange for loans etc. with more favorable terms than they perhaps could have gotten elsewhere, so there is that.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Again …. #siliconvalleybank #svb #siliconvalley #tech #norcal #bayarea #mountainview https://t.co/9mQLnLtGtg</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>@laurenboebert There were actually 16 bank failures between 2017 and 2020 when TFG was in office. SVB Bank is the first to collapse since Biden took office.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>@AubreyEl1 @GOP After this SVB fiasco, it makes us think of the whole Obama/Biden 2008 era all over again.
+Ah sh1t here we go again!</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>@ACTBrigitte @WhiteHouse @POTUS SVB is the largest bank collapse since 2008...same person in charge now also rode shot gun during that time in '08. There's a common denominator and its not Trump. #DemocratsAreDestroyingAmerica</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>liabilities; when depositors started making withdrawals, they had to start selling these assets to meet deposits- the liquidity problem
+As a result, SVB was forced to realize the losses that, until then, had not appeared on their balance sheet (again, the accounting problem).</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SVB had a money duration gap problem coupled with an accounting problem and a liquidity problem. 
+SVB owned a number of bonds designated as HTM (shown at amortized cost on balance sheet, rather than FV)- the accounting problem.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>The triple whipping of SVB 🧵👇</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>@gillysdad1969 @VivekGRamaswamy Nobody cares. $250k is an arbitrary number. It's to give depositers confidence in the american banking system, while not being so high that it incentivizes banks to gamble for ROI. The SVB didnt fail from gambling. It failed because it's dumb.
+archive.fdic.gov/view/fdic/3999</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>@NathanpmYoung @DanielleFong I agree they get their deposit back, but SVB is not relevant to why I think they incurred losses. The problem was the instability and what it took to balance the market. SVB exposed a pre-existing vulnerability.</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>@Oldbikerfirst I suspect they weren't very good bond managers, it wasn't their thang. SVB was a pack of high tech gunslingers but the were proudly dancing the wrong Tandava Dance [the one that leads to the material world being destroyed 😵‍💫].</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>"Trump has such an ego he doesn't care about you!"
+So did the upper echelons of SVB and 99.9% of all government and you're not in vapors over them and what harmful things they've done or are doing.</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Once again Biden saves the Chinese.  This time it’s investors in the SVB FAILURE.  This man is so in bed with the CCP it’s unbelievable. Any other resident of the WH would be impeached. He has destroyed America in just over 2years #gotohellbrandon</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>For founders / CEOs out there... which solution post SVB have you chosen or are leaning towards?  And why?</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>@iVenpu @ravi_r08 long term bond ஒட Fair market value எப்பயும் கம்மியா தான் இருக்கும் அதுவும் Bofa ஒட assets Trillion ல இருக்கு SVB கேஸும் அதுதான் 10 year Maturity ஆரப்ப value will be high as per the balance sheet. But the real question is whether these banks have enough liquid cash at desposal to</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>@latimes @hiltzikm Headline: SVB put bank assets at risk and did nothing about it.
+Or yeah blame the regulators.</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>@KobeissiLetter I was wondering how bailing out just SVB was going to do anything.  Bail out NOBODY!  This mess has to end now.  Let the banks fail before they drag everything else down with them.</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>@NikkiHaley Are there enough assets left in SVB to cover the depositors?
+Doesn’t exactly sound like they do.
+Then what do you do for the depositors?</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>@WCVB I haven't read one respected finance or business person citing SVB as being caused by raised interest rates. Must be a Heritage Foundation/Koch talking point.</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>@SenWarren weeks before this action, SVB CEO sold millions of his stock. gave out bonuses, so WHO'S really to blame? Stop the bs and focus on the $$$ it will cost tax payers</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>"We've investigated ourselves and found no wrongdoing."
+Fed Announces Probe Into Its Own Regulatory Failure At SVB
+zerohedge.com/markets/fed-an…</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>@chigrl @stillgray Look up the chief risk officer for SVB- person was busy elsewhere.</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>@ClownWorld_ Biden saying the banks are safe is about as reliable as when this guy said BUY SVB last month! https://t.co/KSDFXhzUZd</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>@POTUS After this SVB fiasco, it makes us think of the whole Obama/Biden 2008 era all over again.
+Ah sh1t here we go again.</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>@charliekirk11 By your logic, since you're anti-Ukraine &amp;amp; supporting an ally &amp;amp; democracy, no one should bail out SVB &amp;amp; everyone who had money in that bank should lose. Guess you're going to tick off a number of those rich VCs that aren't Democrats. You're just ridiculousness trying to be smart.</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>looks like #forbes continues to really dial in their ability to forecast the future #svb lnkd.in/gP3g9Tmr</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>@HPylori69 @DavidSacks @kinkade_realty @SVB_Financial @theallinpod It was the National Socialist German Workers Party… If I recall, socialists are leftist.  Learn some history before you post</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>@mjfree Are you high?   Do you understand why they collapsed?    It was the combination of inflation and increased interest rates.   The bank was very leveraged with start up tech companies and they came for their money due to interest rates and SVB had to dump their treasury holdings</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>So even though she was a complete failure her whole career, SVB hired her anyway.</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>@inlined I think bailout would typically mean the bank gets to continue existing which isn't happening here. This is a "backstop" for depositors not a bailout of the bank.
+Equity holders in SVB are left with nothing.</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>'Conservative' Michigan banks reassure, spy opportunity in SVB collapse detroitnews.com/story/business… via @detroitnews ⁦@BreanaCNoble⁩ ⁦@rbeggin⁩ ⁦@CWilliams_DN⁩</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Viral post falsely links former Lehman Brothers executive to SVB collapse fox61.com/article/news/v… via @FOX61News</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>BREAKING: Wolfe Research downgrades Tesla, says SVB failure adds to automaker's macro pressures cnbc.com/2023/03/13/wol…</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Svb+
+My autocorrect defaults to machine learning… that’s sad</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Republicans Encouraged SVB Failure - Blame it on 'WOKENESS!' youtu.be/czzkuaLrwhU via @YouTube</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SVB was too woke, that's it.</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>“Analysis: The one #pound rescue: inside the rush to save Silicon Valley #Bank UK.” #SVB  reuters.com/business/finan…</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>How many people wanna bet the SVB closure is a set up from government digitalization branch.</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>@bcmerchant That Wall Street Journal OpEd is the winner, how Hedge-Fund Bank SVB isn't responsible, it was that damn diversity got in the way of those SVB financial geniuses. https://t.co/PUruZPCQiJ</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>@SenatorTimScott @BankingGOP "GOP senators pushed to keep banking rules loose one week before SVB collapse" finance.yahoo.com/news/gop-senat…</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>@adamnash @firstrepublic I hope that case is unlike advertising by SVB (check their money market product). A lot of clients thought their money were spread out to Schwab and the likes, but at the end it was listed as SVB’s money and everything got frozen.</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>@MissionLoco @nytimes @sfchronicle @Hearst Finding out the Director of the @federalreserve of @sfgov was on the board of SVB is all we need to know. Woke went broke and that can't happen with Biden's subsidies  in solar. #Solyndra comes to mind. Not profitable at all.</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>@danmaccarone Right. So the VCs that backed the startups. You know loaded up that SVB checking account with payroll cash.  They have a better shot of getting that money back right?</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>@montanaman842 @William__Durham @ninaturner No, we should not bail them out either. I never said otherwise.
+I am personally at risk of losing all of my shares at a startup I worked for years ago. My 60,000 shares may end up worthless if that company is still banking at SVB. Shit happens.</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Just realized that all the people tweeting about "EEAAO" aren't tweeting about Equal Employment Opportunity/Affirmative Action (EE0AA).</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>@VivekGRamaswamy I'd like to know more about those same companies and their relationship with SVB and its executives prior to the collapse.</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>No fkn 💩! 🙄🤬
+Dick Morris to Newsmax: SVB Bailout, a 'Crony Payoff' | Newsmax.com newsmax.com/draft-stories/…</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>@nkanow @Captain_C2 @MelcherCharlene @RNCResearch Unironically a huge chunk of those were bought out/smaller banks, SVB is a huge issue with how it’s one of the biggest banks in America.</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Brex; we got $2.25M FDIC insurance
+Mercury: we got $3M FDIC insurance
+SVB 2.0: You know what’s cool? UNLIMITED FDIC insurance! 100%! Safest bank in the world! https://t.co/m8N8NNumHw</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Here is the truth: None of the banks have the money - None. They are all too busy playing games with your money. #BankCrash #bankingcollapse #BankingCrisis #svb #svb_financial #altcoin #bailout</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>'Absolutely idiotic'. SVB insider says employees are angry with CEO | CNN Business —There’s more to this story—ad cnn.com/2023/03/13/bus…</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>@LoudmouthMcNasT @KeithStar1100 @RepMTG What about the financial scholars that told people to pull their money out of SVB?  What about the geniuses that relaxed regulations that would have helped prevent this? 
+So many quick to blame someone, anyone, just to blame them, because investigations take too long, I guess.</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Has anybody bought or sold anything on Reverb since the SVB collapse??</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>@JenChangeFL They’re not cancelling SVB’s debts.</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>@AbySene9 @radical_carib Its a lot of risk. The bonds that sunk SVB were considered safe a year ago so a ton of banks have them on their balance sheet. But the things the Fed is doing to fight inflation made their value collapse. So now they gotta choose: keep fighting inflation or protect the banks.</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>@steveliesman Equity holders also have a right to receive better regulatory oversight. I know SVB holders will likely get zip, but they were let down by the Government.</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>@mcuban @BrianRoemmele @SillyOldPops @IntraFi I am so sick and tired that the taxpayers have to bailout companies who have made bad decisions. All their rich Silicon friends in the Venture Capital firm should give SVB a loan to survive. SVB CEO took his money before it went down.</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>@POTUS SVB failed because it was all in on woke policies that you push.</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Signature Bank becomes next victim of US banking turmoil after SVB
+pakistantimez.com/signature-bank…</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>#SVB and Signature Bank shutdown were about control of the system to shutdown crypto.  It’s also about more control on the banking system for their corrupt, Federal communist #WEF CBDC agenda.  The events were planned just like Covid. #BankingCrisis</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>SVB Backstop Fallout: IT Solution Providers Breathe ‘Sigh Of
+ news.today.3ch9.com/?p=56479&amp;feed_… https://t.co/y7BnYhg7qh</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>The #GOP spin on the #svb failure is teetering on insanity.</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>$SVB loosely regulated+uninsured deposits=48hours and risky depositors will be made whole. $MMTLP Heavily Regulated @SECGov @FINRA +illegally traded+S1+millions of synthetic/shorts forced to close+65K honest retail-Heavily Regulated=3months of frozen assets of honest Investors.</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>@RoyDaiber @atrupar SVB bought government bonds and mortgage backed securities that have crashed in value due to inflation.</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>@SenWarren @POTUS What’s clear is that there is nothing you personally, the Administration or Congress can do to prevent bank mismanagement given your own gross mismanagement of the federal government affairs since 2012. The bailout of SVB depositors is just another nail in the US coffin.</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>@wesbury But what about the LACK of any financial regulation towards Crypto?  That is at the heart of SVB, Signature, &amp;amp; others deep into fintechs or others investing in crypto.  These are unhinged investments.  It should have been regulated years ago.  So many people lost from pump &amp;amp; dump</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>#Seinfeld #RiskManagement youtu.be/laKprX-HP94 via @YouTube #SVB should have hired #georgecostanza #SVBCollapse #SVBCrash #SVBank #SVBBank #svb_financial #SVB it wouldn't have been any worse.  LOL.</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>@lordgmanilson @Peter14306722 @GeoffBarton9 @Jimblindsone @bazcarter15 @of_flocks @leftstance @Obohobofromnobo @Rayjudd7 @luter_el @marcsaysmarc @viv_cooper @HWick_Chris @ChrisEv06631592 @Michael80789776 @boomer_ish @BogCleaner1 @suastusa @wobski421 @cathyby @Martin020455 @Holdstk @Swen_2017 @LeftBehindPoet @SetCondiment @David19531501 @EuOutta @JonHlluk @BorderSolutionz @albaa_maha @nathansldennis @andrewsibley15 @CREWTIGER @Davidmetroland @musicalbounce @thegrimbarian @cybremike @Roblev0 @Maggie29047241 @Victor96478703 @RonnieTheFrog @GarryMa21873970 @ShegorTheReador @DrSimonAshworth @RandyKite @SWEEDTRADER @AndrewGarside3 @TonytheRam82 @dg_davies @sheehyjr I mean there’s definitely more work to do on the regulatory side of things.
+The regulator of SVB is the San Fran office of the Fed and they gave it a clean bill of health when they shouldn’t have.
+Plus there’s suspicion of Pump and Dump going on if you track the sell patterns.</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>@herbgreenberg His clients didn't bother to view SVB's investment portfolio, nor diversify their deposits? Now they get bailed out because Powell and Yellen are cowards.</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Warren: SVB? What about the student loan relief???
+hotair.com/jazz-shaw/2023…</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>@RBReich The SVB people are big DNC contributors and it is the Biden admin that is covering the bill.</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Columbia Banking System shares caught in regional bank sell-off: Regional bank shares hit with sell off amid Wall Street jitters following SVB collapse. dlvr.it/SkrBsR</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>SVB’s Collapse Is Causing Chaos in India’s Tech Sector dlvr.it/SkrBqy https://t.co/uSIApJUoH0</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Apollo rumored to be circling…Private Equity Giant Talks to VC Firms About SVB Bid — The Information theinformation.com/articles/priva…</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Thanks to @megynkelly @MegynKellyShow for hosting a classy and civil debate between @VivekGRamaswamy and I on the SVB banking crisis. 
+youtu.be/7VAbifiDg-Q</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>@amacarthur @amyfritz @amacarthur and @amyfritz  Have you compared SVB the collapse of WaMu in 2008-ish? There's a lot of hysterics flying around regarding SVB. However, the same process has been followed. SVB suffered from a lack of deposit diversity &amp;amp; poor planing by the bank operators.</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>@catturd2 Democrats hate fly over country.
+Senator Chuck Schumer ( New York City )
+Dem House Leader Hakeem Jeffries ( New York City )
+Biden (Dover)
+If you don't live on the coast they don't see you.
+Look at Ohio vs SVB</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>@laurenboebert You're a 🤡, your 4 attempt GED is showing again. Diversity has NOTHING to do with SVB, reduced scrutiny at the regulatory level because of CULT GOP, YOUR nonsensical culture war is meant to distract from corporate corruption, worker oppression &amp;amp; staggering wealth inequality.</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Time to buy the Dip.  This sell off is not rational.  #SVB    #CharlesSchwab #stock</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>The collapse of $SVB is war on crypto. The suits got desperate and made a stupid mistake. They were punished with a monster green dildo #bitcoin</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Janet Yellin is one smart cookie. Out of the SVB ashes she's strengthening the bank financial system. When what looks like a bailout is really a backstop with no taxpayer funds.
+washingtonpost.com/us-policy/2023…</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>How many other banks are being destroyed by woke? 
+SVB hired woke board obsessed with diversity mol.im/a/11854497 via dailym.ai/android</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>In case you were wondering why we don’t give a fuck about SVB @AdamKinzinger</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Super interesting thread on the #SVB bank collapse</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Tucker Carlson Exposes What SVB Executives Prioritized While Bank Failed | DM CLIPS | Rubin Report bitchute.xyz/cA54sAt9N2o via @BitChute</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>@MadMoneyOnCNBC Odd, you failed to mention in your mea culpa of SVB is that you overlooked that they had no Chief Risk Officer for 8 Months!  Red flag, no!?</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>'That's how capitalism works,' Biden says of SVB, Signature Bank investors who lost money in failed banks cnbc.com/2023/03/13/tha…</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>What do y'all think is the real cause of SVB's collapse?🤔</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>@Ramy_Sawma Losses at the SVB are estimated at 200$ B which is the same amount given to Ukraine. Coincidence? $ that wil never be reimbursed</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>federalregister.gov/documents/2018…
+Are the bank failures and runs on banks like SVB Financial, Signature Bank, and others waiting in the wings, a consequence of action finally being taken pursuant to Executive Order 13848?</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>@DavidSacks Mr. Sacks if saving SVB is mighty important why doesn’t the VC community infuse capital to rectify the situation they are in?</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>@LeeAnnStar23 The SVB collapse was entirely predictable due to Biden's fiscal policies. Now every American will be hit hard as the Gov. initiates a bail-out.</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Apollo Eyes SVB Assets as Suitors Circle $73.6 Billion Loan Book bloomberg.com/news/articles/… via @markets @SonOfATech</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>@JQHNSwanson There is NO SVB any more.
+But (most of ) the money is still there, in "Santa Clara Bank" or so.</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>“This is really a crisis of confidence in those institutions,” 
+@SPGMarketIntel
+ Principal Analyst 
+@StreetTalkPod
+ says on banking woes tied to the $SIVB collapse. “The amount of uninsured deposits at SVB was way higher than what you see across the industry.”</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Go Woke, Go Broke: Loonie Lefties Crashed SVB Pursuing LGBTQ  Agenda trunews.com/stream/go-woke…</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>So @POTUS steals our tax paying dollars to money launder to #Ukraine … to then want to increase taxes and double capital gains taxes… to only then bailout #SVB with our own tax payer dollars once again! This is a SHET show of a country and we’re all sheep’s in it</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>@RNCResearch @GOP #trump #deregulated #DoddFrank  causing the unchecked financial practices that led to #SVB closure!!! Wake the 🤬 up people!! #GOP caters to big money America ONLY!! https://t.co/Fd98iOJLaz</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>@SamuraiCheeses1 @ACTBrigitte Ok, name EXACTLY which Trump policies caused the svb failure, the train derailment,  the Afghanistan pullout. I mean, quote those policies and explain the relationship to these failures, exactly. Or...shut up. Don't you get tired of making excuses for Biden, Pete,  etc?</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>@LeagueTeague @SmellyCat2Sunny @POTUS There it is! It's Trumps fault!! Nothing to do with the high interest in security bonds that SVB took out! It's all Trumps fault.</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Coming 3X on $GPT and continuing 
+ dexscreener.com/ethereum/0xd46…
+ #airdrop #NFT  $MATIC  #ChatGPT  $GALA  $QUACK  #SVB  
+https://t.co/J6MqAIUL5Q</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>The potential ripple effects Silicon Valley Bank's collapse have yet to be seen, but its impact is already felt across the entire #banking sector. Read: bit.ly/3ZZelPu for better understanding of how it all unfolded. 
+#SiliconValleyBank #SVB #SVBcollapse #Startups https://t.co/Rpo0ags2Nt</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Do you think SVB's collapse was caused by the Federal Reserve's hike in interest rates? 🤔</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>@laurenboebert SVB has nothing to do with people's livelihoods. The FDIC protects them. But if you want to know about incompetence, what about your 17 yr old son impregnating a 15 year old girl, what about having your children hold assault rifles in a picture.</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>@Chris_arnade Does it matter that the CEO of SVB was on the board of directors of the federal reserve bank of San Francisco? I feel like he should’ve known at least</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>@peter Hi Peter, just sent you an email to add more resources to your excellent initiative of SVB emergency resources; specifically on account opening. Aspire is helping startups at risk to speed up account opening.</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>@BettyBowers Is the fed also going to bail out the  investors who bought stock in SVB? Why not?</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>#svb #FRC  I would like to ask: will anyone be comfortable if nobody is looking over the banks’ shoulder, while they are using 10 times leverage to invest your money? Sure some bankers will prioritize profit/stock price over safeguarding your money, little downside for them.</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Democratic Donors Furious At Biden’s Handling Of SVB
+↓ Read More Below ↓
+realnewsnow.com/democratic-don…</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>In light of recent developments with Silicon Valley Bank, and while the FDIC has confirmed that depositors will have full access to their money beginning this morning, we wish to share that all is well with Matr. Your investment is not held with SVB, nor do we hold any debt.</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>@LynnDoe4X @townhallcom Please educate yourself and stop listening to the news. It was not gutted. The changes made in 2018 were not even applicable to SVB!</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>The last thing the Fed, the Treasury Department, the FDIC, and the Comptroller of the Currency want to talk about in the SVB collapse is the extent to which crypto currency was involved. #SVBCollapse</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>@didjeet2 @davidmweissman I worked there for 5 years and actually know what happened.  The run on the bank is not why it's been shut down and taken over by the FDIC. Run on deposits didn't help but that happened when SVB made the announcement about it's troubles, so it was already sunk before the run.</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>@altcap @CNBC No idea what you are talking about.  If SVB had matching assets/liabilities there would have been no problem. Of course then the bank wouldn't have nearly been as popular with a much lower profit margin.</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Note: Cramer made the epically bad $SVB call a month bf this ETF launched, so it didn't have the stock shorted when fund incepted. If it did, man, would have been like an initial booster rocket to returns</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>It is not a bail out. 
+SVB bank is gone. 👇👀</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Friday's bond/rates markets moves were almost indescribable. Somehow today's were even bigger. What is going on isn't just about SVB, though looking into SVB can help provide us with some clues. 
+youtube.com/watch?v=bPlaLs…</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>@JamesBradleyCA 16 banks failed under Trump, after being deregulated by Trump.  SVB was the first under Biden. Do your homework.</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>@RealMattCouch Do you not understand that SVB WASN’T failing on Wednesday, they told their clients they needed to raise funds. TWO venture capital companies emailed their clients and told them to withdraw ALL their money. THEY CAUSED the PANIC that became a self fulfilling prophesy.</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>@Up4Yes @jimstinson @SaraEisen By highlighting the risk. Imagine if rates went to 6% (JPow was hinting, Larry Summers suggested 9-10%), SVB would have been insolvent by $20b or more, and other banks would have been insolvent too. By early identification of risk, regulator can take actions sooner.</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>@GordonJohnson19 C’mon Gordon. What’s the cost of the alternative?  Do you think rolling bank runs would cost less? How much of haircut do you expect SVB assets?
+I was not opposed to a small haircut. Still, not much different between a small haircut and the plan the Fed laid out.</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Peter Thiel caused the bankrun on SVB.</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>@prem_thakker @EricMGarcia Isn’t P. Thiel one of his big supporters? Thiel was the one who started the run on SVB, right?</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>@MrNathanCloete @SkyNews You can’t understand banking very well SVB U.K. had 5.5 Billion worth of debt. So yes it was bought for £1 + 5.5 billion debt</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>@jasonlk That is also probably why SVB no longer exists.</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>@ccaiano7 @vaughn_bowdry @SCROOLOOSE11 @dbongino It’s own people forsure, I definitely won’t argue that. But on the flip side the FED &amp;amp; this administration should have been fully aware. SVB couldn’t liquidate 80B in 10yr TBills that’s a major problem when one of the safest investments on the planet is not able to liquidate.</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>@POTUS @SecYellen Now arrest every single bank manager at SVB.</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>@427Cobra_Please Eh… Rippling is a pretty great payroll/HR company.  I honestly didn’t know they used SVB to pull funds from our BofA accounts before disbursing out to my employees.  FWIW, they switched to Chase over the weekend.
+And no offense taken!  Risk all over the place.  Always will be.…</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>All we hear today is 'sustainability' as if people don't understand its meaning. The response to SVB in many ways is juvenile self-interest and lacking in any sustainable manner. Though unsurprising, unpreparedness seems to be the norm. Come trade for awhile &amp;amp; test responsibility</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>The collapse of SVB and Signature Bank have, once again, shown, the Masters of Universe had learned nothing since the Dotcom Bust of 2000</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>The Useful Tips to Safeguard Your #Money NOW: Is Your Money Safe? Here’s How You Can Do MORE.#SVBCollapse #SVBCrash #svbbailout #IARTG #SVB #BankingCrisis #BTRTG #Democrats #Retweet #Progressives #Dems #SNRTG #RT #SVBBank #BankCrash #Banking #bankingcrash nytimes.com/2023/03/13/you…</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Best SVB situation breakdown!
+Silicon Valley Bailout youtu.be/GdfYnqyu7v8 via @YouTube</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Economics professor explains why SVB and Signature Bank failed so fast alternet.org/svb-signature-… #politics #democracy #PoliticsLive #Equality #maga #DemocracyNotAutocracy</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Taco 🌮 Bell offers free tacos in America 🇺🇸 thanks to $200 billion dollars of funding from SVB and then planes ✈️ start falling out of the sky from all the vaccinated pilots!!! I’m so glad we have Drag Queens reading 📖 nursery rhymes to our kids to save the day?!?! ☠️America☠️</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>@WatcherGuru Cramer also said to invest in SVB.  HE CAN SECOND DECK</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>This week, the Silicon Valley Bank crash &amp;amp; how parents can navigate black swan moments with kids. 
+And the top 5 stories for parents on the future of learning, work &amp;amp;life readiness.
+lnkd.in/g_TvbDcs
+#parenting #disruption #siliconvalleybank #SVB #futureofwork #blackswan https://t.co/fRZophuLZR</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>@katieporteroc 
+SO, SVB, I ask you because you care.
+How much money did SVB receive in PPP loans?
+How many PPP Loans did SVB approve?
+How many of those were Fraudulent?
+I see they approved a lot of PPP loans for Florida Startups.  Are those startups real?</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>@BitcoinMagazine @phaltron Bro you probably didn’t even know what SVB was before it collapsed</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>@juliettekayyem As someone who works with a lot of startups, it wasn't always a "herd mentality" decision. Many VCs/angels and SVB itself required funds to be at SVB in order to invest into the startup.</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Blockchain Today☕️🏦
+- Signature Bank closed🏦
+- HSBC (UK) acq SVB UK🏦
+- Instagram ends NFTs features...for now🤔
+- Nissan files 4 new web3 ™️🚗
+- CoinMarketCap considering CoinDesk acq👀 
+- Eurler Finance sees $196Mn flash loan attack
+1/</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>@WhiteHouse The current administration rolled back all of of Trump’s and has caused more damage than just SVB!  Look at the border, gas prices, inflation and God only knows what other vermin is in our country!!!</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>@adiokingeth @jimcramer they were over leveraged for one, and two they did not managed their bonds portfolio as they should. If they were to manage portfolio risk properly none of this would have happened. Now stop the blaming game, it’s SVB’s responsibility, and they should not get a single taxpayer $</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Few intellectuals understand that Cryptocurrency is a valueless hexadecimal number; the intellectuals’ proverbial naked Emperor. 
+Those who control crypto must steal from valued accounts.  Moreover, to hide the theft a (Sam Bankman-Fried or an SVB) must eventually be sacrificed.</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>@dictionaryhill @frontpage_live @DonaldJTrumpJr Frank-Dodd required banks as large as Silicon Valley Bank to follow stricter regulations, including annual stress testing. The CEO of SVB was one of the most vocal proponents of changing these regulations</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>The same Jim Cramer that urged investors to buy SVB 😂</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>yeah no one mentioned the main reason SVB was so much worse than most banking issues would have been is because it's clientele is exclusively companies that don't have revenue yet lol</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>#SVB’s assets are so tied into #HIMARS equipment, that when I opened account, they gave me a free Christmas sweater.
+@spawnofKahn https://t.co/8YgtAMr9zc</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Quick Question Guys …  if $SVB Bank Customers can be rescued within 2 days after they collapsed,  why can’t the 64,000 $MMTLP Stockholders get same solution and not wait 90+ days? #SPIC #SEC #finrafruad</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Systemic risk on #SVB? @profdavidharvey 
+Oh, you mean the internal contradictions of capital accumulation… watch this! ⬇️
+youtu.be/qOP2V_np2c0 
+#Socialism #NOBAILOUTS #FDIC #GFC #financialcollapse</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>The high-profile collapse of Silicon Valley Bank last week is a story about bad debt, just not in the way most people think. Ad the trouble is that SVB is not alone.
+activistpost.com/2023/03/treasu…</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>@martian321 @POTUS It has nothing to do with policies. SVB failed because of poor risk management. #JoeBidenIsALiar</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>GOP senators pushed to keep banking rules loose one week before SVB collapse aol.com/finance/gop-se… Trump deregulated the banking system for one..then you have these idiots running around pretending that they actually know something about finance. Dems cleaning up the mess again</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>#SVB failed because of duration mismatch. Duration match is banking 101, why do you think SVB didn’t do the most basic thing in banking? When your business model is using 10 times or more leverage to invest other people’s money(most banks do), you need to be regulated...</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>@JonDArsen @DoobLontonder @Krishan_A_Patel He just guaranteed everyone will get thier money.  SvB has loads of accounts with China money.
+Wake up!!!</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>@jaekwon I hope you know somehow that this was very likely all done by design as is this whole SVB ft USDC charade. It’s time to get back to a wholistic basis shrugging off the ‘decentralization’ farce put in place by these same institutions.. And that applies also to Cosmos Network🙏</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>@laurenboebert Yes. We can’t move fast enough since the previous administration reduced bank regulations greatly increasing the likelihood of an svb like failure. The previous admin also lied about a pandemic and implemented tax cuts creating a $T annual deficit. A lot of clean up in aisle 6.</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>@Jason @LAUNCH Now we see why you were in panic mode all weekend with caps locked. Not because you were concerned for fellow Americans but because of your own investments. Should’ve known 
+#svb</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>@ValaAfshar #SVB bailing like crazy.</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>@MeghanReadsMM @BettyBowers @UROCKlive1 I would love to see a list of the hundreds of small startups that received funding from SVB.</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>But fast forward to the end of last week, and SVB was shuttered by regulators after a panic-induced bank run. https://t.co/LBVTywX17S</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>@Oilfield_Rando The iron law of nothing is ever a Democrat's fault. 
+1. Blame highest-ranking  Republican in office.
+2. When no Republicans are near(California), blame last Republican president. For SVB, if Hillary had won in 2016, SVB would have been because of some obscure GW Bush law.</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>@SenWarren So explain exactly what law SVB would have broken without Trumps roll back.</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Timeline: The Shocking Collapse of Silicon Valley Bank
+Just days ago, Silicon Valley Bank (SVB) was still viewed as a highly-respected player in the tech space, counting thousands of U.S. venture capital-backed startups as its customers. https://t.co/1j82mmLirS</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>If de-regulation is really the reason for the #SVB and #SignatureBank collapses, then why didn't the current president fix it? He's had almost 3 yrs of an obedient Congress and even set a record for executive orders.</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Meanwhile, on the other side of the pond, Jay Ersapah, the UK-based head of financial risk management for SVB in Europe, Africa and the Middle East, seemed distracted by her own agenda,</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>#SVB and the 'Everything Crisis': linkedin.com/posts/activity…</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>@CollinRugg There are two banks; midsize at that!! That’s NOT widespread failure. Large cap banks have significant cash on hand as required by legislation. This ovwewrought speculation is exactly why SVB failed, because VCs got spooked &amp;amp; started trying to remove millions at the same time.</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>@htaneja @generalcatalyst @khoslaventures @GreylockVC @MayfieldFund @kleinerperkins @upfrontvc @RibbitCapital @Redpoint @lightspeedvp @altcap you're missing the point. Its a grand scheme to bankrupt SVB with bank runs and secure stakes in startups. Smart people rule!</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Thank goodness our banker isn’t SVB we would be digging a grave instead of a pit for our Beef Barn. I hope the Government will bail us out just like they did SVB. Do you think they will ? I don’t think they will we are producing real Beef not Fake Meat https://t.co/HyeJ18KZk4</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>@DaveHcontrarian @rhoman1996 @elontusk81 @Gratitude101101 Hi David, do you consider the new Fed facility created to provide a backstop to SVB depositors and other troubled banks to be a bailout that could lead to increased QE/balance sheet? Or is this just buying these regional banks some time via loans to sort out their problems?</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>10 Questions About SVB from Barry Ritholtz powerlineblog.com/archives/2023/… via @powerlineUS</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>It would be so fitting if this guy ends up the big loser at the end ..
+'Shark Tank' star shares biggest lesson from the SVB collapse youtu.be/0ns9d9b5V8Q via @YouTube</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>@JStein_WaPo If I were running SVB, the current situation would be feasible; I have minimal understanding of banking. 
+However SVB had competence at the helm. It is unlikely that this is an error of irresponsibility. Therefore the possibility of a planned event should be explored.</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Some imply the SVB bank failed in part because of “it’s woke focus”. 
+Others are very concerned about losing the banks future support of climate related technologies.
+Ironic dichotomies  heatmap.news/technology/svb…</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Also, notably, we are told that the new fdic-controlled SVB approved some loans today (!)</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>@ewarren Silicon Valley Bank didn’t have a Risk Assessor for 9 months before January.Why is that important…the FDIC requires a FR 2052 or a Liquidity Coverage Ratio this form is done by Risk Assessor. When SVB went under their LCR was way out of balance</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>@AshAgony I'm super interested in who got their money out &amp;amp; who didn't. For instance Falchuk. Falchuk was a former candidate for MA Governor. 
+(There is also a whole group of gay people defending SVB. It's peak DEI capitalism) https://t.co/UhxTqYXAQS</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>@ewarren if that's the case, do your job in the senate, exercise some oversight and block the bailout that Biden already announced for SVB.
+The only way to stop too big to fail is to let them fail</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>$BZFD As of March 10, 2023, the majority of the Company’s cash and cash equivalents balance were held at Silicon Valley Bank $SVB</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>@DavidSacks Banks get in trouble when loans are concentrated over too few customers or a narrow business segment.  Likewise their deposits.  A major depositor can drain liquidity beyond the ability of the bank to respond, especially when the banks holdings are of long-maturity like SVB.</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>@DonaldJTrumpJr SVB is not being bailed out.</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>@SanePlantain @FreeFromBS2024 @GaryRitz4 @CollinRugg This one does not know that Barney Frank was on the SVB board, lol</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>@24baseballReed @LqLana @cardon_brian Yep all that for sure.  But no taxpayer money is being used to bail out SVB.  FDIC already fired the management in charge there.</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>@VivekGRamaswamy Almost every co in #SiliconValley uses #SVB. The valley employs about 500K highly paid employees who pay taxes in addition to the company taxes paid by their employers! These employees and the echo system contributes significantly to California’s economy which funds the poorly…</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>@GRDecter SVB was not rescued.</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>POV: you learned too much about SVB collapsing https://t.co/GfQIwcmCD5</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Everyone I know, including myself, that has had experiences with the wine division of Silicon Valley Bank has had great experiences. This is an important piece written by one of their long time client #svb  . lnkd.in/gm4ef2RQ</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Guaranteeing all deposits of SVB, were designed to shore up wavering confidence in the US banking system. They were jointly announced by the Treasury Department, the Federal Reserve and the Federal Deposit Insurance Corp. #BankRun2023 wsj.com/articles/feder…?</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Stock+market%27s+major+indices+mixed+amid+SVB+uncertainties%2C+bank+trading+halts
+justthenews.com/politics-polic… truthsocial.com/users/Carol385…</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>@menlobear Svb already sold for a loss….</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>SVB's Collapse Could Make It Harder for Climate Startups to Get Money businessinsider.com/svb-climate-st…</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>@ksorbs But worse! Good news is that I read the shareholders have filed suit against SVB CEO, CFO, etc. That didn’t happen last time. Just got the TARP.</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>More liberal media crap... Don Jr. DID NOT SAY NO BANKS FAILED....during Trump administration he said he did not remember any as there were none as significant as SVB and Signature, excluding another that occurred today under Biden out on the west coast. Biden's economic problem!</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>The whole "this wasn't VCs, this was just SVB" narrative elides a major point of this whole episode: insularity concentrates risk in lots of ways. You think it was a coincidence that a bank so embedded in this specific ecosystem failed to hedge for higher interest rates?</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Last friday was a day of chaos in the crypto world rumors of a run on silicon valley bank (svb) led to a sharp drop in cryptocurrency prices, with bitcoin falling from $46,000 to $42,000 in a matter of hours.</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>@FractalAnte @edwardcurrent @seethecoin @JustinWolfers @WSJ But what IS being said when one cites diversity on the board in a discussion of why SVB failed? That's the fundamental question. What was the WSJ's point, if not that a concern about diversity distracted the bank from its duty to manage risk?</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>When you lie on your resume but you still get the job:  
+#joebiden #SVB #BidensAmerica https://t.co/jVYdtfEUk6</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Canadian banks erase $19.7 billion in value on SVB contagion | Financial Post … ⁦@DPGmaximus⁩  financialpost.com/fp-finance/ban…</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>@lindyli So, Chipy, I take it you don’t believe Peter Thiel should be allowed to take his own money out of that ESG/DEI disaster at SVB because you don’t like his politics and they’re opposed to yours? Deep thinking and well considered. Not. Princeton cranks out and other snarky twit.</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>SVB’s richest patrons get all their millions back at NO COST TO TAXPAYERS!!! How’s that gonna work??? Bake sales every Tuesday???</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Maybe you just let svb sink and provide social assistance to the affected workers.</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Critics say SVB's technical failure was a problem long before the bank was run, which led to its collapse.
+tinyurl.com/2o7hjv9n</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>🚨🚨🚨#BREAKING 🚨🚨🚨
+(1) SVB bank FAILED 🥵‼️ - Is it Lehmann Brother's Moment 😱😱
+Surprisingly, all CXO of SVB bank sold millions of their shares in last 2 weeks before the stock crash 🚩
+📌 Who is SVB bank?
+#SVBBank #stockmarketcrash #Finance https://t.co/c7Y1hv60Tn</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>@Cam_in_Vegas @DavidSacks @kinkade_realty @SVB_Financial @theallinpod Really?</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Taxpayers ARE on hook for bank bailout - and could even fund bankers' bonuses: Fed's new $25BN loan scheme for troubled institutions risks huge losses for the government after SVB collapse - despite Biden's claims it's not a bailout! 💲🚨😡 Daily Mail  dailymail.co.uk/news/article-1…</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>…It feels like – between trying to brand SVB as “woke” and Cassidy’s Social Security commentary – we’re watching them do pretty terrible message testing in real-time.</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>RT @theFDIC: Federal Reserve Invokes Systemic Risk Exception to Make SVB Depositors Whole jdsupra.com/legalnews/fede…</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>🚨BLAME CRYPTO FOR BANK COLLAPSES &amp;amp; BITCOIN PUMPS!
+WATCH ▶️ youtu.be/1RqnuXmz8L8
+#crypto #cryptocurrency #bitcoin #cryptonews #ethereum #silvergate #svb #signature #circle #usdc #xrp #ripple #banks https://t.co/qpGDbJX5Ju</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>@StephenM @drscott_atlanta Just a coincidence that SVB's rich clients who are over the $250,000 fdic limit are now bailed out, democrats taking care of democrat donors &amp;amp; ideologues and the hell with everyone else.  So so corrupt.</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Perspective: we went from the collapse of SVB, to the USDC FUD, and now we are bullish..
+All within 3 days…3 days.
+You have to be in control of your emotions to make it in crypto. 
+This place is a never ending roller coaster. https://t.co/IBc9VHLQrA</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>830am tomorrow it all falls apart or later this month when T-note goes up 50bp.
+The hedge funds, banks, ROKU, crypto drug smugglers, and whoever else had money at SVB and Signature don't need the bailout. 
+Is it a free market if you prop it up every time it shits itself? https://t.co/tXqS4BQX71</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>@KobeissiLetter SVB was a bail out of Chinese investors.</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>No losses by SVB and Signature Bank will be borne by the Taxpayers 🤣 Trust your government! 🇺🇸😜 federalreserve.gov/newsevents/pre…</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Federal Reserve Invokes Systemic Risk Exception to Make SVB Depositors Whole jdsupra.com/legalnews/fede… #FDIC</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Viral post falsely links former Lehman Brothers executive to SVB collapse wkyc.com/article/news/v… https://t.co/Ep6RkLfhO6</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>@SincereCicero @robbystarbuck @BillAckman @SVB_Financial @jpmorgan @Citi Robby
+sorry for posting it in wrong part of thread.</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>@JonErlichman Maybe the spiking and SVB will cause some self-examination ….. at least for awhile.</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Let's break down the Silicon Valley Bank crash
+Cause: SVB lacked liquidity AND people started to question the bank's ability to hold onto their money 
+Effect: Tech Investors tried to wire out their investments 
+Cause: the Government ensured that depositors' cash was safe</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>@SenatorTimScott MARCH 3, YOU SENT A LETTER ASKING FOR MORE LENIENCY FOR BANKS--IN ADDITION TO TRUMP'S ROLL BACKS. MARCH 10 SVB COLLAPSES. WHAT DID YOU KNOW, TIM? WERE YOU TRYING TO SAVE THEM?aol.com/finance/gop-se…</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>@chiefchimpanzee @benedictevans @Krimshael SVB had cash sweeps. That doesn't solve the problem. It's still uninsured and your protection depends on when the money is swept and when the bank is teken over by FDIC. 
+I had to learn about this on Saturday, sadly.</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>@JimLaPorta @andykessler @WSJ Gotta admit, the ability of the right wing pundits to make the SVB meltdown into a result of wokeism has shocked me. It’s absolutely ridiculous but also an incredible feat of imagination.</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>SVB Execs SOLD MILLIONS, Took Bonuses Before Collapse | Breaking Points youtu.be/1EPzoXxNITA via @YouTube</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>@racs_o @daddio SVB funds weren't even locked up for 1 business day. Fearmongering here because crypto bs.</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Two large banks collapsed in a matter of days. Is your money safe? NewsNation’s chief Washington correspondent @BlakeBurman breaks down what you need to know.
+Full story: trib.al/8GxY38h
+#SVB #BankCollapse #Economy https://t.co/uHF1er0BCS</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
         <v>232</v>
       </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Mr Gentile, CAO of SVB securities, former CFO of Lehman Brothers, ought to be barred from ever working in the financial world. ⬇️ https://t.co/FFqYNWxqJF</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
         <v>233</v>
       </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Coming 3X on $GPT and continuing 
+ dexscreener.com/ethereum/0xd46…
+ #airdrop #NFT  #ChatGPT  $USDT  $WOOF  $APT  #SVB  
+https://t.co/p8F0sjSyZH</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
         <v>234</v>
       </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>@JimboJohnson33 Future earnings huh? 😅 The sell off was in reaction to the sell off of SVB. Pure panic, those with access see deposits flying out… they sell.</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
         <v>235</v>
       </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>@HawleyMO Josh Hawley will probably visit SVB before he does anything for Easy Palestine. Josh hasn't visited a train derailment or helped anyone anywhere. 
+He thinks his job is pretending to work, instead of actually working. Do something productive, Josh Hawley. 
+#PayCutForJoshHawley</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
         <v>236</v>
       </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>@QuirkyGrrrl @ncvikingmom SVB executives &amp;amp; wealthy clients are rewarded for plowing money into risky investments and leftist DEI/ESG nonsense.
+Responsible regional banks, that delivered lower returns for years because of fiduciary integrity, are told to just suck it up.
+It’s always the same. 
+FJB</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
         <v>237</v>
       </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Remember, @FederalReserve enticed all banks to park their depositors funds in high-interest Treasuries and overnight interest-bearing accounts. Most banks did. Most banks have the same exposure as SVB. They can't sell those T-Bonds except at a loss that increases as rates rise.</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
         <v>238</v>
       </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>@POTUS Your war on fossil fuel caused inflation,mortgage rates rose,you spent trillions on woke policies,people couldn’t afford to pay mortgages and no new loans were being sought,SVB invested in woke green policies with no return,SVB account holders took out their money, summed up Joe!</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
         <v>239</v>
       </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>I just subscribed to BIG by Matt Stoller mattstoller.substack.com/subscribe?utm_…. Good SVB perspective.</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
         <v>240</v>
       </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>@PatrickGman @ksorbs Actually SVB put all their eggs in one basket and paid the price for having poor leadership.</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
         <v>241</v>
       </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>@_RebeccaParham Um....you do realize the Libyan Nationalists will hunt you after you exchange them with broken pinball machine parts, right?</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
         <v>242</v>
       </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>SVB " WHAT ARE DEPOSITORS ABLE TO WITHDRAWAL TODAY?"
+I'VE BEEN LOOKING ALL DAY FOR THAT ANSWER ON TELEVISION &amp;amp; INTERNET!
+NO MENTION OF IT?
+CAN THEY TAKE OUT $500,000?</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
         <v>243</v>
       </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>_φ(B_C
+-- Bitcoin rallies over 18% in 24-hour span in wake of SVB crisis techcrunch.com/2023/03/13/bit… #tech-en #feedly</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
         <v>244</v>
       </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>@OGSharks73 @JustTheFacts68 @CollinRugg What's the 3rd bank to collapse under Biden?
+All I've heard about is SVB and Signature.</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
         <v>245</v>
       </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Deposits are the exact opposite of debts. This is like saying the debt SVB owes its depositors should be “forgiven.” The exact opposite happened</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
         <v>246</v>
       </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Vivek Ramaswamy: ‘I think [the SVB rescue plan] is crony capitalism all ... youtu.be/7cSRNW1FV00 via @YouTube “The Federal Reserve has made deep seeded mistakes in this country over the past few decades by trying to play God!” 💰👥🤜🇺🇸💔</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
         <v>247</v>
       </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>@lindyli Republicans aren’t pushing for SVB bailouts. This is all Biden and his attempt to keep things from spiraling out of control under his failed administration</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
         <v>248</v>
       </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Some good news and some bad :)
+#cryptocurrencies 
+US bank bloodbath: Bitcoin hits $23.7K as BTC price analyst calls SVB dip ‘bear trap’ cointelegraph.com/news/us-bank-b… via @cointelegraph</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
         <v>249</v>
       </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>@AwakeAggie Oh yes !
+SVB was involved in funding 44% of all Biotech startups. Much of their investment went overseas e.g. to China, but also they're responsible for the Bay Area
+California has deliberate loose regulation on BioLabs &amp;amp; China virtually none. https://t.co/IIHsS2R2G2</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
         <v>250</v>
       </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>@Jeremy_Hunt Why didn’t you just offer SVB depositors a government loan to keep them whole? Answer - your donors in the banking world wanted to undo some of the protections in the 2009 Banking Act. Same old bullshit every time from the tories</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
         <v>251</v>
       </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>@choi_aj I am a CPA and an auditor. I definitely am aware of that, but they also do other things to secure large cash concentrations. I think that, in a vacuum, the SVB decision is correct, but I think there must be real substantive change to the banking system coming from this.</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
         <v>252</v>
       </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>SVB's collapse could make it harder for climate startups to get the funding they need trib.al/b88luwy</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
         <v>253</v>
       </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>National Socialist Democrats like Sen Warren point the finger for SVB &amp;amp; Signature collapse. Blame is squarely on Fed's inflation fight raising interest rates at record pace &amp;amp; collapsing bonds in which banks were invested leaving them undercapitalized. msn.com/en-us/money/ma…</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
         <v>254</v>
       </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>There are countless bad takes circulating on SVB’s demise, but the “woke” bad takes are truly the worst.</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
         <v>255</v>
       </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>@bennyjohnson He needs to get up and lie yet again. Trump regulatory law had nothing to do with the SVB. Hmmm, didn’t SVB get an Epstein Island subpoena? No wonder Joe is up early</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
         <v>256</v>
       </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Ex-Home Depot CEO Bernie Marcus Blames Biden’s Woke Policies for SVB rumble.com/v2cyhdg-ex-hom…</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
         <v>257</v>
       </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>@fred_guttenberg @POTUS Meet the head of risk management for SVB, her bio mentions nothing about her experience in banking lol https://t.co/TVI0MjsexA</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
         <v>258</v>
       </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Read several posts by SVB employees that have been laid off - they loved their firm, cite all the good the bank has done, blame bad communication for the run. Except it’s more than bad communication: their vulnerable business model lacked more prudent interest rate risk mgmt</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
         <v>259</v>
       </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>REVEALED: Former Lehman Brothers CFO was hired by Silicon Valley Bank and recently-appointed risk manager worked at Deutsche Bank when it LIED to investors and had to pay $7.2 billion 💲🚨😡 Daily Mail Online #SVB  dailymail.co.uk/news/article-1…</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
         <v>260</v>
       </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>@AnMailleach The government parties will await knock-on global  economic developments in the context of SVB and if it looks bad, will call an election.</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
         <v>261</v>
       </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>@JoshSonders @RBReich What does svb have to to with anything progressive?</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
         <v>262</v>
       </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Biden, banking system safe. SVB, don't call it a bailout. Elensky needs ... youtu.be/uCFQYrH-8KE via @YouTube</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
         <v>263</v>
       </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>$SVB seeing an uptick in chatter on 4chan over the last 24 hours++Via topstonks.com/crypto/SVB?st_…++#svb    #4chan  #altcoin https://t.co/hUK5SkQVEc</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
         <v>264</v>
       </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>@POTUS Blamer-In-Chief!  No one believes you. Dems had complete control of the federal govt for 2 years yet didn’t unroll the “rollback.” That’s because you know it was your reckless spending, resulting inflation, and woke investments by SVB they caused the failure. #WorstPresidentEver</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
         <v>265</v>
       </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>#PrinceHarry is trying to scam a BILLION dollars from hard-working Americans through a banking scam. He is not a citizen &amp;amp; does not pay taxes. He spent all of his money &amp;amp; now is coming for yours. He will rob our middle class! No bailouts for the rich! #svbbailout #SVB   #SVBBank https://t.co/EidVmeRUZa</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
         <v>266</v>
       </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>@lavern_spicer There were 16 according to FDIC.gov's failed bank list, but total deposits were about 3% of those covered by FDIC for SVB. Pretty big difference</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
         <v>267</v>
       </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Silicon Valley Bank Got Woke, Went Broke
+Corporate responsibility, huh? Instead of auditing its own books, SVB used the largesse made off customers’ funds to conduct an “equity audit” 
+spectator.org/silicon-valley…</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
         <v>268</v>
       </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>@DavidSacks You created the problem outside of SVB. Stop gas lighting us.</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
         <v>269</v>
       </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>After a crazy weekend dealing with the SVB chaos, here is my view tonight. Lets all keep calm and carry on. https://t.co/DqY3upFJkq</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
         <v>270</v>
       </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Elizabeth Warren criticizes 'overnight' bailout of SVB customers while leaving 'millions of student loan borrowers in limbo' trib.al/JLWzSFR</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
         <v>271</v>
       </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>@OVNIS_UFOs Don't worry, people who have their money in SVB are so influent and powerful that US GOV is going to pay for and not let them lose money. POWER LEADS THE WORLD...You can't imagine how these companies are important for the NWO.</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
         <v>272</v>
       </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>APX 1.88
+52w 1.36 - 2.24
+Pe  3.60x
+Rsi 42.67
+Asian Gold Miners Gain as Gold Jumps Most Since November
+Spot gold climbed 1,911.95 +1.90% the most since Nov. 10, as the fallout from SVB’s failure combined with a decline in the dollar index to drive up prices https://t.co/V4XzXAs72M</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
         <v>273</v>
       </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Yes, it's only been a mere 8 days but $SJIM is already beating S&amp;amp;P 500 by 5 percentage points (and w less vol), not bad for short span, annual eq of 70% vs -65% (and these returns are despite not catching his legendary $SVB call) https://t.co/zRmFFdqHsl</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
         <v>274</v>
       </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>NEW: Just days after SVB was bailed out amidst one of the largest financial collapses in US history, @jontester was in Silicon Valley fundraising with the bank’s lawyers #MTSen 
+nypost.com/2023/03/13/sen…</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
         <v>275</v>
       </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Dick Morris to Newsmax: SVB Bailout, a 'Crony Payoff' dlvr.it/SkrBTb via @newsmax</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
         <v>276</v>
       </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>@MarshaBlackburn Tell us which of Biden’s policies led to the East Palestine train derailment and the SVB collapse. Go ahead we’re all waiting</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
         <v>277</v>
       </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>SVB was insolvent for 5 months and these 2 bafoons👉  @SecYellen @JoeBiden did nothing about it.</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
         <v>278</v>
       </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>@Acyn I'd have to see the portfolio....but it's possible. I worked with VCs and they referred us to SVB for loans for various reasons and sometimes, SVB wanted in on a start up, would take some equity.</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
         <v>279</v>
       </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>@abbij1961 @WhiteHouse No. Trump removed regulations that were a crutch. Corrupt management destroyed the banks.
+why’d the ceo of svb sell off millions in shares, days before?
+block you both.</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
         <v>280</v>
       </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Bald CEO among fine, hirsute, virile men in the executive team may have led to SVB demise. As a person of baldness I take no pleasure in raising this common sense truth.</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
         <v>281</v>
       </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>A source told Bloomberg the PayPal cofounder's fund had moved to close its exposure to the failing bank after running into problems using SVB's services. Peter Thiel's Founders Fund Pulled Cash From SVB Before Collapse: Report businessinsider.com/peter-thiel-fo…</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
         <v>282</v>
       </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>@MarioNawfal I asked because I thought that legislation did not apply to SVB, but just looking for confirmation.</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
         <v>283</v>
       </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>@PameVls @mercury Been with them for 5 years now I think never had an issue. I think the lag is due to the crisis that was happening with svb.</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
         <v>284</v>
       </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>This period of economic downturn is the worst. #SVBank #SVB</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
         <v>285</v>
       </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Expert warns the collapse of SVB could mean 'a 2008-style crisis' - CGTN images.app.goo.gl/HdGfyZYHABLnLE… 17:06, 13-Mar-2023</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
         <v>286</v>
       </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>@lumiere2016 That’s a smart thought that person expressed about X.com. I’m not sure what my opinion is about it all yet, honestly. The only thing clear to me is I’m glad SVB is gone because it was a foreign influence $ funnel.</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
         <v>287</v>
       </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>In 48 hours, #SVB went from the  16th largest bank to 2nd largest  failure. Whether  by fed policies , or woke  investments, t only three things can come from this: snowball affect, more fed regulation, and wealth consolidation. 
+Tonight, we dig into SVB!
+youtube.com/watch?v=xXI96_… https://t.co/KSrKfva1mO</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
         <v>288</v>
       </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>@ewarren What were the “too big to fail” rules and how did they allow for the bank run at SVB?</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
         <v>289</v>
       </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>SVB’s debt was being quoted by investment banks at around 45 cents on the dollar. - @ajsaeedy https://t.co/S8NkCEPQjP</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
         <v>290</v>
       </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>@EddieE0802 @JanuaryDana @SaltyGoat17 I just saw another waste SVB committed 5 bil to a healthier planet organization. I wonder how many billions were donated to one of bidens secret climate foundations.</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
         <v>291</v>
       </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Loggi says moved all capital invested in SVB between end of February and beginning of March.
+$SIVB
+#Ainvest #Ainvest_Wire #Finance #wallstreet #stock 
+View more: bit.ly/3X4l0XC https://t.co/br6lVUYhOx</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
         <v>292</v>
       </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>SVB failed bc it did a poor job hedging its risks &amp;amp; macroeconomic conditions turned perilous. But @GovRonDeSantis &amp;amp; Republicans demonstrated they're not only willing but eager to meddle in private companies’ business in order to enforce social policies. theatlantic.com/ideas/archive/…</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
         <v>293</v>
       </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>@cwebbonline Whether regulations were tightened or loosened isn't the issue. Competent risk managers would act in the best interest of all involved. They did not. They acted in a political rather than a fiduciary manner. SVB was doomed because of who managed it and was inevitable.</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
         <v>294</v>
       </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Take a look at look at SVB's (Silicon Valley Bank) analysis by our COO @apcavallerooo 👇🏻
+linkedin.com/feed/update/ur… https://t.co/atY1NaBqAb</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
         <v>295</v>
       </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>@unusual_whales SVB boasted of having two veterans. Did woke hiring of them cause the mismanagement and criminal practices?🙄</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
         <v>296</v>
       </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>#Bankcollapse
+As an india I was devastated to see the collapse of SVB because SVB stands for Saravana Bhavan, a great south Indian restaurant where I get idlis from bcs I live far away from my mum and I get homesick. Then I saw it was a bank that I dont use.</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
         <v>297</v>
       </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>@RulesReps @HouseGOP Something else from last week-
+"GOP senators pushed to keep banking rules loose one week before SVB collapse" finance.yahoo.com/news/gop-senat…</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
         <v>298</v>
       </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>@DonaldJTrumpJr 16 banks failed under Trump.  SVB was the first under Biden. Just saying...</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
         <v>299</v>
       </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>@NebraskaTyler @Forrest85919134 @glennbeck @sinuous_grace @ConceptualJames Im gonna drop this little tidbit here for you: a statement of cause and effect does not mean a statement of sole responsibility. 
+Trump signed the law that gave SVB and SB the leeway to fail, they failed… 
+Cause and Effect.</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
         <v>300</v>
       </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>@mdudas How do you feel about HSBC buying the UK arm of SVB? Very much a not friendly to crypto bank now holding customers accounts &amp;amp; loans to tech &amp;amp; crypto based start ups &amp;amp; founders? Talk about trial by fire for these new companies 😬</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
         <v>301</v>
       </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>@SenatorTimScott “GOP senators pushed to keep banking rules loose one week before SVB collapse” - Yahoo Finance, 3/13/23.
+Hey Timmie, not your best decision ? Yeah, thought so. Bro, do better.</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
         <v>302</v>
       </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Conservatives blame Silicon Valley Bank collapse on 'diversity' and 'woke' issues nbcnews.com/politics/polit… @nbcnews They Bragg about SVB Collapsed Bank but they Don't said a WORD How much the CEO Earned LAST YEAR and the Year Before but they Quickly Jump to ask For Gov. Bail out.</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
         <v>303</v>
       </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>@micsolana @rsg dude the rich people/corporations retroactively changed the rules to save themselves. that isn't fair and that is what should piss people off. most people aren't saying that SVB got away with anything you are cherry picking the stupidest argument so you can dunk on people.</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
         <v>304</v>
       </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>My favorite (least favorite) part of the SVB failure is how this is the latest in a long line of banking failures—&amp;amp; the first one that includes Black &amp;amp; queer people in leadership—and rather than going “maybe something is wrong with banking” the rich are just blaming minorities🤡</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
         <v>305</v>
       </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>2008 = regulatory failures
+2023 = economic policy failures
+that’s why SVB is different
+but guess what? the government is at fault for both</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
         <v>306</v>
       </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>To complicate matters further, the US conservative press has revealed that the SVB operated without a chief risk officer (CRO) between April 2022 and January 2023.</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
         <v>307</v>
       </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>@EcoGeekLyfe @KellyKrobar @debipwannabe @Cernovich lol Exactly, as your post states, SVB did not fail because of government regulation. They failed because of their own choices and a shitty economy.</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
         <v>308</v>
       </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>@MikeIsaac even w/o FDIC help, most depositors prob get back &amp;gt;98% of their $. FDIC members pay cost of tiny rescue, which is price of calming the public. shareholders get 0, execs get fired &amp;amp; bonuses probably clawed back. Enough incentives for other bank execs to not repeat SVB mistakes.</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
         <v>309</v>
       </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>What's interesting overall about this is the going belief that the Feds would raise interest rates until they broke something. Yes this is a problem of SVB's making, but the market seems to think this is the event that makes the Feds halt. I don't know about that.</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
         <v>310</v>
       </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>@stephendpmoore That's true.  I'm not sure we are into full bailout mode on SVB.....  The investments are still worth 80 cents on the dollar and the FDIC is just supporting it to 100% of value for a year...It MAY turn into a bailout if these MBS investments go deep south...SBV's portfolio.</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
         <v>311</v>
       </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>@WallStreetSilv They’ll raise the rates because they offered the treasury bond bailout to all FDIC members, dollar for dollar purchased price under a Bank Term Funding Program. Not just SVB, all FDIC banks! The FED has to make money back on those buy out losses somehow.</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
         <v>312</v>
       </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>@Stockspy1 Their uninsured deposits were on par with SVB.  Lots of big over $250k accounts https://t.co/8gmmCXixsd</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
         <v>313</v>
       </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>SVB Backstop Fallout: IT Solution Providers Breathe ‘Sigh Of
+10.metashoptr.com/svb-backstop-f…</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
         <v>314</v>
       </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>@ItalianLeopard2 @AdamKinzinger Anyone that has deposits over $250k, can spread across banks, as each bank insures $250k. There's several common solutions to insuring deposits for biz and individuals &amp;gt; $250k.   SVB didn't have a risk manager and stopped protecting their bond portfolio against inflation in…</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
         <v>315</v>
       </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>@PeterZeihan I don’t have much sympathy for SV culture, and kinda rejoice each time a centralised “crypto” institution fails. But this has got to be one of the worst SVB takes I’ve seen.</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
         <v>316</v>
       </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>@GOP @chiproytx The SVB collapse -like his many bankruptcies-another Trump failure. Trump, the leader of the Republican party. Their 2024 candidate. The Republican definition of “success”. https://t.co/4wnBhOlhUJ</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
         <v>317</v>
       </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>@laurenboebert #BankRunBiden 
+Unpreparedness of the United States for a pandemic ... Blames Trump
+Gas prices double ... Blames Trump
+Afghanistan withdrawal subpar ... Blames Trump
+Record Inflation ... Blames Trump
+Train derails ... Blames Trump
+SVB Collapse ... Blames Trump</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
         <v>318</v>
       </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>@SenWarren How much wampum did you have in SVB Pocahontas.</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
         <v>319</v>
       </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>@laurenboebert SVB served mostly white gazillionaire tech bros. Nothing much diverse there. Maybe read up on the issues we're forced to watch you confront on twitter &amp;amp; on the floor of Congress, cringy one.</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
         <v>320</v>
       </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Democrat Jon Tester rubs shoulders with his SVB law firm partner at the Palo Alto party pkbnews.us/democrat-jon-t…</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
         <v>321</v>
       </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Firms with deposits in svb should just inherit the Treasury bonds instead of getting their deposits from fdic. Let them decide between immediate discounted money or long term stable debt.</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
         <v>322</v>
       </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>if your mortgage was through SVB you should get your house for free fr https://t.co/8tTmlXn31D</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
         <v>323</v>
       </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>SBF? SVB? More of that s'il vous plait!</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
         <v>324</v>
       </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>#Despite HSBC buying SVB, the Indian Markets fell. More pain ahead? [Fundamental Analysis]
+ift.tt/QDHshYS</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
         <v>325</v>
       </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>@Cryptoyoga33 @RuleXRP Oh. Now I feel sad for being too harsh to the SVB CEO. I didn't knew how haaaaard the situation hit him... I guess some of the millions he made with the stock sales will ease his payne. https://t.co/XBWq7Qeqob</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
         <v>326</v>
       </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Silicon Valley, what happened and what people are confused about 👀👇
+#SVB</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
         <v>327</v>
       </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>This past weekend, I was in a WhatsApp group with over a thousand other founders that would have been impacted by the SVB chaos…
+The threat of it being the first domino of many was far more real than most realize.</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
         <v>328</v>
       </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>"Failed Silicon Valley Bank (SVB) has been hit with accusations that it was hyper-focused on so-called diversity, equity, and inclusion (DEI) initiatives and generally managed poorly." #ESG #DEI 
+dailywire.com/news/failed-sv…</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
         <v>329</v>
       </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>@RBReich How much do the rich depositors of SVB need?  Biden will provide.</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
         <v>330</v>
       </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>@Robespierring @MikeIsaac Prosecutions for what? SVB invested in bonds because they couldn't make enough loans, their customers didn't need them, and then when their customers pulled money out SVB sold their bonds at a loss. What crime do you think can be prosecuted there?</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
         <v>331</v>
       </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>@Jessicalessin @WSJ @WSJ What the flying fart? 
+You published an article saying non-white men added to the board is why SVB failed? 
+That’s so sick, it’s poison. You’re poison. Woke bank, that’s your pitch? Personify much? 
+There’s no returning from your darkness. You are an empty vessel.</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
         <v>332</v>
       </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Ugg 💉☠️💰
+~
+intern eth shiba doge xrp axie acnh anime ai rugby pets dentist chef realtor pilot soldier marine bts Sox blackpink fortnite trucker biker canucks oilers bruins raptors nba nhl nfl 49ers raiders mavericks tesla nft taxi rancher farmer yoga xbox ps5 hk Seoul Tokyo SVB</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
         <v>333</v>
       </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>SVB failure could have been prevented by just one more regulation https://t.co/3cUgkzWBUG</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
         <v>334</v>
       </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>@lavern_spicer But you can remember when Trump signed to remove the key regulations that would have prevented the collapse of SVB, right?</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
         <v>335</v>
       </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>This is a much stronger argument against how things proceeded than ... "iT's A bAilOuT!"
+I'd like to be clearer on the scope of the actual extra cost once its assets are transferred to a new owner. $250K per account at SVB is ~$10B</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
         <v>336</v>
       </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Stock in Roku and Other Companies With SVB Exposure Are Still Down. Here’s Why. - Barron's stocks.apple.com/APn2iyp8VRX6l-…</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
         <v>337</v>
       </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>@WhaleChart Yeah, just like he said purchase #SVB a month ago 😂😂😂</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
         <v>338</v>
       </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>⚠️  LOGGI SAYS MOVED ALL CAPITAL INVESTED IN SVB BETWEEN END OF FEBRUARY AND BEGINNING OF MARCH</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
         <v>339</v>
       </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>⚠️  LOGGI SAYS MOVED ALL CAPITAL INVESTED IN SVB BETWEEN END OF FEBRUARY AND BEGINNING OF MARCH</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
         <v>340</v>
       </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>@JDVance1 "SVB failed because there were too many minorities on the board" is a depressingly common argument</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
         <v>341</v>
       </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Over the weekend everyone was tweeting their SVB takes. Now everybody is tweeting their takes on those takes. https://t.co/PDgyJfIrUs</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
         <v>342</v>
       </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Today I had the opportunity to speak with @charliewwells  Wells from @business about the recent failure of #SVB and the implications for savers with more than $250,000 in deposits. 
+I want to thank Charlie and @misyrlena for their insightful questions, bloomberg.com/news/articles/……</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
         <v>343</v>
       </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>@grosmorne29 Swift doesn’t have anything to do with SVB’s demise. Put crudely, SVB had little diversification in its clientele and the investments they made with their deposits. When the Fed hiked interest rates, client base and assets had nowhere to run for safety and chaos ensued.</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
         <v>344</v>
       </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>To: u guys freakin out-bein like TOLD YA SO!! blablah over the piddly &amp;amp; natural course of events surrounding the SVB "story"
+s.
+m.
+h.
+study more. this is nothing weird. or big. settle
+down. Media &amp;amp; news watchers..thirsty?
+ya-
+(masturbate or somethin; more. Capitalism's safe)</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
         <v>345</v>
       </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>SVB hired woke board obsessed with diversity
+ mol.im/a/11854497</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
         <v>346</v>
       </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>@laurenboebert The CEO of SVB was a) a white guy and b) also presiding over Lehman Brothers when it tanked. Go check on your underage kids knocking up minors.</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
         <v>347</v>
       </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>@catturd2 Who isn’t having fun?
+SVB to name one</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
         <v>348</v>
       </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>@Crowded_Mkt_Rpt All those all those commercial guys got smoked the past week …wonder if they’re unwinding positions as it slowly gets more out of hand. The fact the fed bailed out svb and market yawned was bad sign for anyone long. The $bkx is the proxy the stock market. Ain’t going anywhere</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
         <v>349</v>
       </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>@POTUS My question is how many folks in our government including both houses of congress have money invested in SVB? Including all employees of the fed. And how much did they have invested in SVB and any of these other banks going broke and wanting the gov to make it all good.</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
         <v>350</v>
       </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>SVB Financial Group
+Top Affiliates: Boston Private Bank · Silicon Valley Bank
+Related Organizations: Boston Private Bank
+Cycle:
+2022 election
+Source: Open Secrets
+is.gd/PNvtkD https://t.co/GFpSKBkYpt</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
         <v>351</v>
       </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>BahahahahaaahaTREASURIES-US two-year yields crash in wake of SVB collapse, yield curve narrows inversion yahoo.com/finance/news/t…</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
         <v>352</v>
       </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>@RepJudyChu Bank bailouts are a huge mistake &amp;amp; immoral! Oh since you are a CCP advocate &amp;amp; BFF! You love that the American taxpayer is giving free money to CCP based Silicon Valley businesses that banked with SVB</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
         <v>353</v>
       </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>@Bonecondor Not usually a conspiracy theorist but… did the FDIC need a second bank so they could pay out SVB’s uninsured depositors?🤷‍♂️
+Like it’s kinda against their remit to do so unless there is some additional systematic risk so two banks “failing”+lots of noise = justification?🤷‍♂️😐</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
         <v>354</v>
       </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Gianforte literally saw Silicon Valley Bank #SVB implode and get saved in one weekend and he thought, 'I definitely need a huge tax break, rich guys never get any help.'
+When the crash comes and Montana's broke Gianforte will punish the poors and the poors only.
+#mtpol #mtnews https://t.co/zlLCJhgpPt</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
         <v>355</v>
       </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>@theinvestar Just need one incompetent bank to buy it in size and we have a problem like SVB</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
         <v>356</v>
       </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>@Carnage4Life If the FDIC really tried to sell SVB assets, how would they price all the stock or equity in startups with new lowered valuations?</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
         <v>357</v>
       </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Chinese start-ups scramble for alternatives to SVB hedged.media/politics/chine…</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
         <v>358</v>
       </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>"It is abundantly clear that SVB was terribly mismanaged. Their executives appeared to be more focused on diversity and ESG than managing their own risks." 🤨🤔
+washingtonexaminer.com/policy/economy…</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
         <v>359</v>
       </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>@mjfree The issues with the bank were rooted in poor management in several areas.  SVB does not fall under Dodd-Frank, though, regardless, being a commercial bank.  Even if it did, though, this is a gratuitous, nuance-lacking political opinion without grounding in SVB failures.</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
         <v>360</v>
       </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Chinese start-ups scramble for alternatives to SVB hedged.media/politics/chine…</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
         <v>361</v>
       </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>📣UPDATE: re #USDC&amp;amp; #SVB
+#BRIKbc uses $UDSC &amp;amp; $RVN #crypto for people to buy our current #Tokenized #RealEstate🇦🇺#PropertyTokens:
+🐬#BRIKdolphin GoldCoast🏠
+🐨#BRIKkoala Brisbane 🏠
+We do NOT hold accumulated funds
+in $USDC or #RVN
+for settling Property
+Funds are held in🇦🇺AUS$ https://t.co/WF4Og84Yju</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
         <v>362</v>
       </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>#SVB operations before the run
+#SVBCollapse https://t.co/Fnboc09iJt</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
         <v>363</v>
       </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>@harleqwin5r @_youre_annoying @CraigHarrigan1 @AnthonyWapow By selling their stocks or bonds, is what you're saying? Deposits are generally safe, and most of the depositors will be made whole, or fairly close to such. But, if you invested in SVB by buying stock, you knew that you were taking a risk.</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
         <v>364</v>
       </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>@daridgaf @heyitsromar Def SVB ripple effect</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
         <v>365</v>
       </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Wondering how Silicon Valley Bank came to be? Hear SVB founders Bob Medearis and Roger Smith tell the story of starting the bank in this oral history interview: bit.ly/3JBldNF</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
         <v>366</v>
       </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>@NEWSMAX ESG woke policy SVB implanted is one of the reason , second terrible Biden economy , high interest , Yellen horrible financial politics 🤬🤬🤬</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
         <v>367</v>
       </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Ffs. Politicians, officials and media again at levels of degeneracy beyond belief. For those who need to hear it:
+Silicon Valley Bank SVB is not crypto. It's a bank. One of those real trustworthy traditional banks. One of those good banks that regularly need tax money bailouts. https://t.co/i9UzfoBxDl</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
         <v>368</v>
       </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>The tech sector is blaming SVB CEO Greg Becker for the bank's collapse.</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
         <v>369</v>
       </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>@RichardGrenell Biden's economy had nothing to do with the collapse of SVB. It happened because of trump's deregulation.</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
         <v>370</v>
       </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>@JoeBiden Another bailout is all this is, Over 90% of accounts in @svb were not eligible for the @FDIC 250K b/c they were too big. The Democrats just bailed out Multi Million Dollar Accounts.</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
         <v>371</v>
       </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>US bank stocks tumble and Treasuries rally amid SVB collapse ft.com/content/bbeea0…</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
         <v>372</v>
       </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Pathetic Red Team Vs. Blue Team distraction Eric. 
+Thanks for breaking down SVB, what about the $630B at other banks? Or the FED's terrible policy failings that created the crisis? Or your reckless spending of our money? 
+But if we just get the right people. . . 🤦‍♂️</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
         <v>373</v>
       </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Biden says to do ‘whatever needed’ as banks hit despite SVB action - canadanewsmedia.ca/biden-says-to-…</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
         <v>374</v>
       </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Looks like http[://]login-svb[.]com is now used for a phishing test (it was parked earlier today). Does not look malicious. #svb</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
         <v>375</v>
       </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>FAKE video manipulated
+Silicon Valley Bank Crash.The Simpsons did this in 1994. #svb #finacialc... youtu.be/Rkqj_xXdCyQ via @YouTube https://t.co/H5NUt79AVC</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
         <v>376</v>
       </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>SVB’s tech failings preceded the historic bank run, critics say
+#Tech #Bank #critics #failings
+gallantceo.com/blog/2023/03/1…</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
         <v>377</v>
       </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>SVB/Signature Banks are insolvent…and they are linked to the tech industry. Hmm?  These bank leaderships have been focused on WOKE agendas and reckless practices instead of managing their portfolios…FOR…THE SHAREHOLDERS. 
+“EVERYTHING WOKE TURNS T0 SHIT”
+@SpeakerMcCarthy</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
         <v>378</v>
       </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>@DonaldJTrumpJr If you think what's going on at SVB is bad, wait until you hear what's going on at BofA. Ask me if you're interested.</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
         <v>379</v>
       </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>@ACTBrigitte Brigitte- SVB  bank partly due to deregulating banks in 2018. That was in Trump administration.</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
         <v>380</v>
       </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>@KathrynLaskey True.  But very few of actual experts were educated on youtube.
+I’ve done risk management and strategic planning for banks and credit unions for 20 years.  So ima just sit back and enjoy this one.
+Favorite so far is claiming SVB and Signature failed because they are “woke” https://t.co/cstoWldOjJ</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
         <v>381</v>
       </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>@SeffroodBrandon @HillCountree @atrupar Why should I possibly lose all my FSA money because the HR management company my company worked with used SVB?
+I wouldn’t be able to use my commuter card if I didn’t have a month pass that’s already valid…
+But go on….</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
         <v>382</v>
       </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Mark Cuban &amp;amp; billionaires stoked max fear on failure of #SVB to push gov into a bailout of tech millionaires. 
+Those who committed s**cide over their #FTX losses were left with nothing. FTX gave cash to both Dems. &amp;amp; Reps.
+Capitalism 👏 does 👏 not 👏 work 👏 
+#FDIC #NOBAILOUTS</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
         <v>383</v>
       </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>@TAftermath2020 GOP senators pushed to keep banking rules loose one week before SVB collapse. 
+Why?</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
         <v>384</v>
       </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>@SauravGupta7050 @HindenburgRes Hindenburg is not a govt org. so whatever they do is in their own interest, they dont give a f about SVB bankruptcy. It is the job of Securities and Exchange Commission (SEC)</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
         <v>385</v>
       </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Find your #web3 passion on a decentralized network!
+#build #blockchain #Passion #Crypto #fiat #svb</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
         <v>386</v>
       </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>@ewarren You are a liar, Barney Frank just came out saying that Trump's rule changes had NOTHING to do with SVB failing, also the lead investigator for the FDIC just said the same thing.</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
         <v>387</v>
       </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>#SVBCollapse &amp;amp; its Repercussions: How soon Will The Bail Out Restore Confidence as The Shares of First Republic Bank &amp;amp; Other Regional Banks dive on contagion Fear #svbbailout  #SVBCrash #svb_financial #SVBBank #SVBCollapse #svbbailout #IARTG #Progressives  reuters.com/business/finan…</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
         <v>388</v>
       </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>@Timothy05102555 @DebbieSVA @CollinRugg Those regulations are exactly why SVB failed. SVB was allowed to mark bonds on its books as cash equivalents held to maturity.
+This allowed them to quietly overinvest in bonds. They didn't have to report that they took huge losses on those bonds as interest rates rose.</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
         <v>389</v>
       </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>@soch1209 @ltime778 @robinhoodjr24 @RepMTG lol, SVB already followed Dodd Frank regulations even though it didn't have to. 
+So your precious regs did nothing to stop this bank failure due to wokeness.
+You clearly have zero idea what was going on at this bank but just came here to defend sjw virtue signaling.</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
         <v>390</v>
       </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>The #SVB failure news is everywhere. @SquireWealth Advisor, @claygklm11 discusses a few points that will hopefully help you see that this is not the 2008 crisis all over again and calm any concerns you have about the markets or your money. CVSoci.al/L6nNQ3hJ</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
         <v>391</v>
       </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>--46:08:00 SVB and bank bailouts
+--46:56:00-47:45:00 bruce talking about him
+--2:09:42 Reaction to "Celsius is Collapsing... Here's Why" by Coffeezilla. youtu.be/d5ll3ByaoHE        
+--2:54:47 His old takes about SVB
+--3:00:08 I did a thing drops out of creator clash</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
         <v>392</v>
       </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>glad I'm on crypto. #SVB</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
         <v>393</v>
       </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>“More than $500 million in SVB Financial’s debt traded on Sunday &amp;amp; Monday morning, while over $1 billion traded hands on Friday”</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
         <v>394</v>
       </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>@mitchellvii Seems to me the best person to ask would be Barney Frank.  Not only did he coauthor the bill but sat on the board of directors for SVB.  politico.com/news/2023/03/1…</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
         <v>395</v>
       </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>@RBReich Because progressive policies, by definition, are failed policies. But even a blind squirrel finds an acorn from time to time, Bobby...the SVB bailout (and it is a bailout) is a terrible policy supported by bums in both parties.</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
         <v>396</v>
       </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>@vdare @Steve_Sailer SVB going down was likely due to social contagion effects within its clientele. mobile.twitter.com/itsurboyevan/s…</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
         <v>397</v>
       </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>BEFORE SVB DEPOSITS ARE GUARANTEED 
+vs 
+after svb deposits are guaranteed https://t.co/sQj34ukmiV</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
         <v>398</v>
       </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>In light of recent developments with Silicon Valley Bank, and while the FDIC has confirmed that depositors will have full access to their money beginning this morning, we wish to share that all is well with Matr. Your investment is not held with SVB, nor do we hold any debt.</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
         <v>399</v>
       </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>For people who blame Trump’s policy for SVB Going Broke and the Oscars Suck youtube.com/shorts/_5pOr94… via @YouTube</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
         <v>400</v>
       </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>@patrickbetdavid I heard you lost all your money in SVB?</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
         <v>401</v>
       </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>@mjfree #SVB crashed itself. The Biden Regime has had time to put those regulations back… why didn’t they? Not every horrible collapse can be blamed on The Last President while the current regime is a clusterf@ck.</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
         <v>402</v>
       </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>@MeidasTouch you are upset fox is telling the truth about svb so you want a distraction</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
         <v>403</v>
       </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>SVB's collapse was due to it's focus on ESB &amp;amp; DEI and other social justice issues rather than dollars and cents. Is the U.S.A. heading down the same path as Shri Lanka with businesses focusing on the WEF ideology and woke nonsense? We must speak out while we still can.</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
         <v>404</v>
       </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>@DanFriedman81 .. for Democratic Senator Elizabeth Warren, legislative changes bank executives lobbied for years ago (including SVB’s own CEO, Greg Becker) mean the banking sector’s crisis was both predictable and overdue, and the writing on the wall is yahoo.com/lifestyle/eliz……</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
         <v>405</v>
       </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Elon should buy svb and crypto it out https://t.co/S6f2xSEm1a</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
         <v>406</v>
       </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>@tyler_allen The investors in SVB lost it all, only small businesses had their hard earned money protected and returned to them for payroll. This is literally the purpose of the FDIC.</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
         <v>407</v>
       </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>@B75807113Sharon @KurtSchlichter Sharon please stop regurgitating nonsense. Americans need to be smarter than this. The SVB failure was due to poor investing and skyrocket inflation &amp;amp; interest rates. The poor investing wasn’t Biden’s fault but the current economic failures are most certainly his.</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
         <v>408</v>
       </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>@IRidoutt @GRDecter Also, Government securities are the exact investment that SVB was holding that wrecked their balance sheet. Bonds purchased when interest rates are low are worth a lot less when interest rates go up. So no, government bonds are not necessarily safe.</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
         <v>409</v>
       </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>@koloj51 The reason that SVB and Signature and FRC banks are all going to be bailed out is because that's where donors had their money stashed. That WAS their campaign funds and they're going to try to put tax payers on the hook for it.</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
         <v>410</v>
       </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Expert warns the collapse of SVB could mean 'a 2008-style crisis' news.cgtn.com/news/2023-03-1… via @cgtnofficial 17:06, 13-Mar-2023</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
         <v>411</v>
       </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>did you expect what had happened to SVB?</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
         <v>412</v>
       </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>@mystride @MoscowMitchsMom @krassenstein @superduperdud89 The long bonds caused the liquidity issue with SVB</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
         <v>413</v>
       </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>@keybrackson @c_coggs @Malone_Wealth No. Not literally worse than SVB. Exponentially larger with a far broader  and investor base as opposed to being confined to a small sector of very large depositors and VCs. It would take millions of people running on SCHW to have the same effect.</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
         <v>414</v>
       </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>THIS!!! One of the best primers on the SVB &amp;amp; Signature Bank failures I've read so far! 11/10 recommend. 
+0/10 rec: Bad capital reserve mgmt.
+#InterestRateRisk #LiquidityRisk 🤓
+theconversation.com/why-svb-and-si….</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
         <v>415</v>
       </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>@ICU1010 What we need to find out is did any congress/senate members magically sell their SVB stock recently?</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
         <v>416</v>
       </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Democrat Jon Tester to rub elbows with SVB law firm partner at Palo Alto soiree trib.al/UzXIii3 https://t.co/7BCw8DThol</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
         <v>417</v>
       </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>@laurenboebert Did SVB make any political donations?</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
         <v>418</v>
       </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>@JoeBiden Actually, REAL Americans are wondering what pay for play scheme the US government is up to vis-a-vis the SVB… OR, whose money it’s laundering through the SVB depositors bailout. PHONY!!! https://t.co/FeCzqMWyBU</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
         <v>419</v>
       </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Every last one of these vampires has danced on the graves of entire industries while ranting about the free market and risk taking. They should have known what SVB was doing. But now we have to pretend it's apocalypse if they only got 250k back from their obvious risk.</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
         <v>420</v>
       </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>That's the thing we're mad about. Not that SVB got bailed out, but that every last one of us has had an "oopsie you didn't file form 1042.5.B so you now owe $1000 or Uncle Sam will confiscate your blood" moment, while these ghouls get avoid obvious consequences.</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
         <v>421</v>
       </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Top economist Mohamed El-Erian says unlimited deposit guarantee will be hard to reverse after SVB fallout: ‘We are now in a different world’ - mrbencampbell.com/top-economist-…</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
         <v>422</v>
       </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>@realjenx The Lehman guy is with SVB.</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
         <v>423</v>
       </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>@hyperplanes Business payroll? Very few personal accounts at SVB!</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
         <v>424</v>
       </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>🇺🇸💸 : They were a woke bank
+With : @JamesComer
+From : twitter.com/atrupar/status…
+#SVBCollapse #SVB https://t.co/PbM2RnXXcW</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
         <v>425</v>
       </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>#SVB will be used as an excuse for  a massive market crash (correction). 
+Nothing to do with it they just needed an excuse. 
+The truth is years of greed. SVB catered for a few, but correction is needed. Hold to your cash, if you have debt I will pray for you.</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
         <v>426</v>
       </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Nice thread about what happened to SVB.</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
         <v>427</v>
       </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>No. SVB held $157 billion at year end 2022, nearly all in long-term Treasury Securities bought when prime was near zero. @FederalReserve hiked interest rates, depreciating the securities. Withdrawals overwhelmed their liquidity.</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
         <v>428</v>
       </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Democrat Jon Tester to rub elbows with SVB law firm partner at Palo Alto soiree dlvr.it/SkrBHs via @nypost</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
         <v>429</v>
       </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Expensify getting fucked by SVB = me getting fucked lovely</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
         <v>430</v>
       </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>FDIC Still Looking to Sell SVB: Sources -- WSJ
+DIC Planning Second Auction for SVB: Sources -- WSJ
+FDIC Told GOP Senators of Plans for Another Auction -- WSJ</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
         <v>431</v>
       </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Sen. Bernie Sanders, Ind-Vt., was even more direct: “Let’s be clear. The failure of SVB is a direct result of an absurd 2018 bank deregulation bill signed by Donald Trump.”</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
         <v>432</v>
       </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>SVB’s Collapse Could Also Create Big Problems For Small Businesses blocstreet.com/svbs-collapse-…</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
         <v>433</v>
       </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>The best analysis that I have read re SVB ....
+A Silicon Valley Bank short seller explains how he knew the bank was in trouble months ago finance.yahoo.com/news/silicon-v…</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
         <v>434</v>
       </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Investor: SVB losses unlike 2008 crisis, but could turn systemic news.cgtn.com/news/2023-03-1… via @cgtnofficial 21:26, 13-Mar-2023</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
         <v>435</v>
       </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Video Game Journalists Affected By SVB Collapse youtu.be/QS0zT_DZLB4 via @YouTube</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
         <v>436</v>
       </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>@TheGreatFagen @VivekGRamaswamy We (Americans) are not bailing out SVB. The Govt came in to protect the depositors, especially the insured deposit so employees of these SU could meet payroll. The uninsured deposits will get SOME 💰 back but not all. Would you agree we need to regulate this type of banking?</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
         <v>437</v>
       </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>@mattnwalsh @kinkade_realty @DavidSacks @SVB_Financial Can I have Lazy for $1000, Alex?</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
         <v>438</v>
       </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>@mjfree Woke management.
+Woke management across the country is about to domino, better fix the schools or you will get another generation of failures. Go woke go broke svb was just the first episode in season one. Stay tuned for episode 2, woke management failure is in _____, sector. https://t.co/44yM0Jt9Ht</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
         <v>439</v>
       </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>@BtfsplkJ @DebWilhelm69 interestingly 97% of deposit left under the control of SVB were for $250K</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
         <v>440</v>
       </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>@WBPetersen @UnHedgedChatter @LHSummers WRONG. SVB personally lobbied to roll back regulations on banks of their size. Regulators cannot go beyond what Congress authorizes them to do. 
+fortune.com/2023/03/11/sil…</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
         <v>441</v>
       </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>And, the LA Jewish Journal leads its nightly email by parroting the ridiculous racist line that SVB was brought down by the token non-White board member, rather than bad risk management by a team lead by a former Lehman exec named -- believe it or not -- "Gentile."</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
         <v>442</v>
       </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>What do the official communists of the USA think about Biden, Yellen, and the ruling capitalist clique that allowed SVB to happen? Well, https://t.co/nU9d3ZmZ4Z</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
         <v>443</v>
       </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>@ArmandKleinX @Rammie24 Trump got blamed again for their banking mistakes. SVB was too busy talking about woke topics. Wasn't watching the interest rates rising.  There were many offers to purchase the bank but BIDEN said No! I am confused about who owns the bank? Couldn't the bank get a loan?</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
         <v>444</v>
       </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Gonna go out on a limb and suggest maybe SVB knew tech, but maybe didn't really know finance. Not bad for customer service of the tech industry, but bad if your service is being a bank.</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
         <v>445</v>
       </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Biden Says ‘Banking System Is Safe’ Amid Fallout From SVB Collapse link.theepochtimes.com/mkt_app/silico…</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
         <v>446</v>
       </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>@davidsirota It's worse than that: The reason businesses weren't doing risk management is that SVB bribed them with unsustainably-low interest rates on loans, including personal loans, in exchange for keeping all funds there with no risk management. They benefited: prospect.org/economy/2023-0…</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
         <v>447</v>
       </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Hooray for the depositors at #SVB . Businesses will be able to pay employees, receive their paychecks, and help themselves and families. 90% uninsured on $220Billion is ludicrous</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
         <v>448</v>
       </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Chinese start-ups scramble for alternatives to SVB
+investing.com/news/world-new…</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
         <v>449</v>
       </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Just a lil thoughty thought
+#SVB 
+#stockmarketcrash https://t.co/cyCgzfm6wh</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
         <v>450</v>
       </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>@LastCallCNBC 
+Svb lent millions to napa valley. Newsome has a few wineries in napa. Maybe  regulators and newsome had to much cab and looked the other way . Let's see what the emails
+Show. Did newsome do business with svb</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
         <v>451</v>
       </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>@laurenboebert @RobertSieger2 What about Trump's partial rollback of the Dodd-Frank Act in 2018,  did that not ultimately have a roll in SVB failure?
+How about the ECB brake rule from the FAST ACT Obama 2015 for trains carrying hazardous, that was withdrawn under Trump 2018?
+Place blame where it's deserved</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
         <v>452</v>
       </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>So a possible contributing factor to SVB’s failure stems from them hiring 2 veterans, a Black person, and a LGBTQ+ person to sit on the board? — It’s hard to take this Op-Ed by @andykessler of @WSJ seriously. wsj.com/articles/who-k… https://t.co/F9mprnAuOI</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
         <v>453</v>
       </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>@FluentInFinance Best explanatory thread about SVB, but also the whole banking system in general. Thank you, read it all, and it helped me big time</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
         <v>454</v>
       </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>@NEWSMAX Biden and some of you other people really suck at research. Trumps rollbacks were for smaller lending institutes. As of September 30, 2022, there were 4,746 commercial banks in the U.S. SVB was listed as #16 out of the top 20. The rollbacks did not affect SVB.</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
         <v>455</v>
       </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>@JDMatlock1 @edmeyer_able @laurenboebert East Palestine was due to bad infrastructure. Something Republicans didn't address for 4 years, and after Trump lost, they opposed.
+SVB collapse would've been prevented, because they would've been required to keep enough money on hand to prevent it.
+Tax cuts costed 2 trillion.</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
         <v>456</v>
       </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>This. I’m looking for the headline that tries to place the blame for the SVB collapse on CRT next…</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
         <v>457</v>
       </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>@cxotalk @dhinchcliffe @holgermu @eric_kavanagh @SVPR_Sweetheart @dez_blanchfield @rwang0 @BillMew @BBCWorld @robmay70 @cloudpundit @shanebrighton @fogle_shane @antgrasso @AkwyZ @imoyse @sallyeaves @SVB_Financial @federalreserve @jonfortt @furrier @dvellante @efipm @psb_dc @BillHewittCEO @FDICgov @iamAible Risk assessment in banking has a “durational mismatch”, a loophole in regulations and that’s mainly due to the mortgages system US has designed. You can lock the low rate for 30 years but refi if rates go lower. Banks are left holding the bag (full of risk)!
+System is working as…</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
         <v>458</v>
       </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>@Davidlaz The managers of SVB should be sued for misconduct. To lock-in so many assets in 10-Year (low yield) Treasury Bonds was simply foolhardy. Better Government oversight, relaxed during the Trump administration, would have prevented this avoidable failure.</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
         <v>459</v>
       </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>@SenWarren @nytopinion Barney Frank the board member of SVB and author of Dodd Frank says the changes under Trump had nothing to do with the failure. A private buyout was the best solution but Biden’s admin blocked it. Tax payers should not bail this out. Stop spreading mis information.</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
         <v>460</v>
       </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>@juliettekayyem They were pro SVB for a reason. Read Mike Moritz-arguably the best VC of the last 25 years-in the FT on why SVB mattered.</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
         <v>461</v>
       </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>@JonHess415 I mean the people… I mean the government already bailed out SVB</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
         <v>462</v>
       </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>#Poll 
+Twitter, who's to blame for our Failing #Banks and High #Inflation? 
+Leave comments below! 
+#Biden #DonaldTrump #Bidenflation #SVB #SiliconValleyBank #SVBCollapse #SVBCrash #SignatureBank #USA #FederalReserve</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
         <v>463</v>
       </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>Banks spent years lobbying to throw out the legislation, and with the help of Trump and the GOP.
+Sen. Elizabeth Warren, who fought to stop the repeal, wrote that regulators should reverse the dangerous bank deregulation of the Trump era that weakened the rules for banks like SVB.</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
         <v>464</v>
       </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>After SVB collapse, bank stocks slide despite government intervention  washingtonpost.com/business/2023/…</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
         <v>465</v>
       </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>I feel like that creepy anti-mask dude on the airplane really lucked out with this whole SVB bailout thing. He was going to be famous for weeks until all the even worse people begged for money, got money, then criticized the rest of us for not loving them enough.</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
         <v>466</v>
       </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>@EconguyRosie Your bank regulators in San Francisco failed the SVB depositors. Own it Joey!</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
         <v>467</v>
       </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>@KSAmofaEN @ChinaCentralBa1 @RBI @CentralBank_TR @bankofengland @centralbank_ie @BancodoBrasil @KremlinRussia_E @BankOfJapan @EuropeanCentral @FT Collapse of SVB &amp;amp; SIGNATURE triggers urgency for alternative reserve currencies or an single independent reserve currency for d world</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
         <v>468</v>
       </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>@Boomieleaks If SVB hadn't bought 10 year bonds without hedging the interest rate risk with swaps, they would also still have been solvent.</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
         <v>469</v>
       </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>@BoMiCle1 @KimBenabib @mcuban I'm sure if you look close enough you'll see a video where he's doing a presser to say he's rolling back parts of dodd frank. Parts that would've put SVB in check via stress testing. Something that was in place to prevent exactly what's going on now. Was 2008 not enough?</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
         <v>470</v>
       </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>CFO at Lehman Brothers worked at SVB. risk manager worked at Deutsche mol.im/a/11855245 via @MailOnline</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
         <v>471</v>
       </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Well, @andykessler just made @WSJ look like a joke!  Just when people want real reporting and thought provoking opinions, he tries to blame the failure of SVB on... diversity.  
+wsj.com/articles/who-k…</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
         <v>472</v>
       </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>@TorstenBell You need to watch this...@ProfSteveKeen gives the low down on the SVB situation in the states, SVB will not be a one-off, this is down to the FED's QE/QT/Interest rate policy debacles coming home to roost.
+twitter.com/RP_In_Action/s…</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
         <v>473</v>
       </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>@SophieCaligirl "So I told Meghan that SVB was a totally rubbish investment opportunity. Worked a treat"</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
         <v>474</v>
       </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>#Germany. #BaFin has asked to close the #Germanbranch of Silicon Valley Bank. #SVB https://t.co/wnGQJgbcbU</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
         <v>475</v>
       </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>@cenkuygur Deregulation was definitely what caused  SVB to invest in scam 'green' projects and implement pointless DEI projects at the company, right? ESG and DEI are extreme regulation posing as virtue and must be outlawed to save not just the banking sector but the whole country.</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
         <v>476</v>
       </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>How the Fed's interest rate hikes led to SVB's collapse - Grid myforum.link/threads/how-th… #TrendingNow #HotTopics #Trending #News #NewsUpdate #Forumidex #MyForumLink</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
         <v>477</v>
       </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>✅ LIAR LIAR 🔥🔥🤥🤥🤥🤥
+Barney Frank also rejected the notion that a Trump era rollback of the Dodd-Frank regulations contributed to the collapse. “I think, if it hadn’t been for FTX and the extreme nervousness about crypto, that this wouldn’t have happened—even to SVB or to… https://t.co/cVKzLYiw8h</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
         <v>478</v>
       </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>@CBSNews @ABCWorldNews @NBCNews @MSNBC @CNN STOP Promoting SVB Sign America's Bank Crisis.  Stop saying It's because of fed rate raising, they were gradual, banks could plan it out. Something else like maybe Crypto which has always been a grift which got legitimized irresponsibly</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
         <v>479</v>
       </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>@Stradivari48 Presumably these tech firms are a risky bet with little assets ..... and explains why SVB went bust.
+More worrying is that "tech" is a post Brexit UK growth bet that is relaxing pension freedoms to invest in.
+Glad I have full control over my pension.</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
         <v>480</v>
       </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>@unusual_whales The only one accountable is Mr Inflation who make the Fed raise rate that make those bonds hold by SVB lost it values. Wait maybe crypto industry cause the inflation? Scapegoating is easy lol</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
         <v>481</v>
       </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>Jesus Christ my firm switched HR platforms three months ago and our new platform kept all of our paychecks at SVB are you fucking kidding me</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
         <v>482</v>
       </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>@ritholtz 3 banks blew up. Silvergate, SVB, Signature. Fed won’t wait for ‘dozens’ - that means they failed.</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
         <v>483</v>
       </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>@pana067 @eniro11 No I don’t. I’m saying Proof Holdings is a private business. They were very quick to disclose exposure to svb, but you seem to want more transparency? As in detailed financials? I think the expectations of getting this is wild, we’re not share holders of the business. Can you…</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
         <v>484</v>
       </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Biden says Americans can "rest assured" banking system is secure after SVB collapse - CBS News myforum.link/threads/biden-… #TrendingNow #HotTopics #Trending #News #NewsUpdate #Forumidex #MyForumLink</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
         <v>485</v>
       </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>SVB was "more concerned about global warming than shareholders' returns."
+zurl.co/5TfH 
+#SVB #SignatureBank</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
         <v>486</v>
       </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Well, That Didn’t Take Long: SVB’s Holdco and Execs Hit with Securities Suit | The D&amp;amp;O Diary securitiesdocket.com/2023/03/13/wel…</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
         <v>487</v>
       </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>@ewarren If only SVB hadn't invested heavily in US Government 10 yr Treasuries that were near worthless. ........</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
         <v>488</v>
       </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>@RepAndyBiggsAZ Deflecting from the fact that the trump administration weakened the regulations that were meant to keep situations like svb from happening.
+And in true GOP fashion, you play bullshit bingo and try to blame "woke" for this, the current GOP Boogeyman.</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
         <v>489</v>
       </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>“We did not anticipate that we would have to pay the penalties we ultimately were required to pay,” Jamie Dimon wrote in a 2015 letter to JPM shareholders.
+Given this history, it would be surprising if JPM were interested in SVB.</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
         <v>490</v>
       </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>Wall Street is surprised by First Republic's falling stock. Here's how the bank compares to SVB - CNBC myforum.link/threads/wall-s… #TrendingNow #HotTopics #Trending #News #NewsUpdate #Forumidex #MyForumLink</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
         <v>491</v>
       </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Investors rush into bonds, gold in flight to safety after SVB rescue cryptofinance7.com/2023/03/13/inv…</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
         <v>492</v>
       </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>The wrong kind of disruption: SVB collapse forces startups, VCs to scramble during SXSW bizjournals.com/austin/inno/st… via @AustinInno</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
         <v>493</v>
       </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>Silicon Valley bank and First Republic Bank, both has billion dollar advertisement while bank run news spreads. Before that most of the people have not heard about those bank existed. They can now capitalize new customers as well. #SVB #FRC #Bankrun</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
         <v>494</v>
       </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>@edmeyer_able @laurenboebert Let's also not forget that the CEO of SVB is a staunch liberal and huge Democratic donor...
+He also was the Director of the San Francisco Fed while simultaneously being the CEO of the bank that he's supposed to be regulating!
+Corrupt Democrats! https://t.co/viIB2sEfLu</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
         <v>495</v>
       </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>@andrewrsorkin I mean your guy Cramer even said SVB was a buy. And I am not among one of his trolls.
+So we depositors should have known more than Cramer about a bank we didn't have accounts at?</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
         <v>496</v>
       </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>Gamestop should become a bank so that in the remote case they become like #SVB or #SignatureBank, they can get bailed out by the government too.</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
         <v>497</v>
       </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>@cynthiablee @tanonev @6Gems Yeah, thanks to the US Treasury, not SVB's "assets".
+"Nice!"</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
         <v>498</v>
       </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>@AdamKinzinger There were 15 bank failures under Trump for a TOTAL of $7.2b. SVB is $209b. The second largest bank failure of ALL TIME. Want to know what number three is? Signature bank. They ALSO just collapsed. ($118b) I noticed your cherry picking started at 2017.</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
         <v>499</v>
       </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>@WallStreetSilv It is a democrat thing. SVB is a big time climate tech company that donates to the democrat party. This is just average democrat corruption.</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
         <v>500</v>
       </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>@POTUS Bank bailouts: so far two; SVB and Signature ! Americans know that these are bailouts, even though you refuse to call it that! Joe, Americans are not stupid !FDIC is now backstops the whole banking system ! Thanks for the mess you created! First Republic could be next!</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
         <v>501</v>
       </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>@POTUS How much money does the Desposit insurance fund have ? Dec 2022 it was at $127 billion.  SVB is 212 billion in the hole. that's just SVB.
+#financialterrorism</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
         <v>502</v>
       </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>I hope one of the side benefits of the SVB failure is the revelation that a great many VC firms and recipients aren’t quite as financially savvy as everyone supposes.</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
         <v>503</v>
       </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>@AndrewJBates46 If the Biden Admin was concerned with that why didn't they roll them back? The fact is SVB asked for excemptions twice during this administration, that would be Biden's Administration if Joe has forgotten, and because their ESG score they were granted it both times.</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
         <v>504</v>
       </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>@radikowsky @GiveMeADouble @tomselliott @oneunderscore__ I hate his cluelessness made me defend SVB's risk management, which was WOEFULLY deficient, but it wasn't because of DEI or wokeness or minorities or whatever he attributes to it.</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
         <v>505</v>
       </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>@HozioSEO Ya, all we have to do is put our $ in SVB! Bbbbbhahahaha!</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
         <v>506</v>
       </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>Where is CAPITAL being favored here?
+INVESTORS in SVB have been told they aren't getting squat because as Biden put it "that's how capitalism works".
+A GOVERNMENT INSURANCE PROGRAM is the reason SBV depositors are getting their money back which is GOOD.
+This is why you lose.</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
         <v>507</v>
       </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>I also was listening to John Paul DeJoria who own Patron tequila was on CNN with Erin Burnett saying that Biden is going to bail SVB out.  Biden said he will make sure the account owners are covered and not the bank itself.</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
         <v>508</v>
       </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>The #SVB is a traitorous bank and deserves to be liquidated. All bonuses paid should be confiscated and given back to all loyal American companies!</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
         <v>509</v>
       </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>thecsrjournal.in/social-prescri… Not much has been done on this . Now with bank collapsing with financial world redefining it self - elder are left alone . We ought to be more responsible . #kewalkapoor #elder #SVB December 12 , 2019 . And we seen covid . I opposed old age home . 2020…</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
         <v>510</v>
       </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>@trefenten Replace "SVB" with "starving orphans"  - not so funny now, is it</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
         <v>511</v>
       </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>How much do they want for SVB? I have an idea for a financial institution</t>
+        </is>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
         <v>512</v>
       </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>SVB's fall creates some ripples in China, but investors, depositors see "limited impact" dlvr.it/SkrB99</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
         <v>513</v>
       </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>@elonmusk @JTLonsdale Old man has right
+rest easy for now. The banking system is sound.SVB=0.91% all banking us assets</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
         <v>514</v>
       </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>HSBC INTENDS TO INJECT £2 BILLION INTO SVB UK.</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
         <v>515</v>
       </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>Indian startups breathe easy as withdrawal limit for SVB lifted – Times of India ndtvnewsindia.com/indian-startup…</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
         <v>516</v>
       </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>@KimDotcom Good thread here.
+Only thing missing is mention that FDIC decided to freeze SVB because they tried to sell their Treasuries which would have created a catastrophe for the Treasury if other banks followed suit.</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
         <v>517</v>
       </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>@steveliesman Most banks did't want the extra extra extra risky biz SVB took on.  Simple.</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
         <v>518</v>
       </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>@djrobynbanks Stop making excuses for the lack of competence in the Biden administration whose job was to regulate SVB. https://t.co/AohqPhMcrm</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
         <v>519</v>
       </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>@bas3dlatino So what do you make of the SVB failure, which from what i gather, is due to the Inflation rates being far too agressive. and apparently the scale of bank failures in terms of total assets for 2023 is now similar in size to 2008 at the peak of the financial crisis.</t>
+        </is>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
         <v>520</v>
       </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>@SRuhle You do realize how the failure of SVB without bailout would have had a horrific trickledown affect into not only California economy, but the entire economy.  But it needs to be investigated</t>
+        </is>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
         <v>521</v>
       </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>@nilocobau @newdougman @Huly16609302 @HeadwaysMatter @bklyngap It's true. I was out and about and living my life.</t>
+        </is>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
         <v>522</v>
       </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>@TechDeals_16 @live_free_603 @ArtemTepler Correct, but maybe we should go back to actual fractional reserve instead of 0 reserve. Regardless, this wouldn’t have helped SVB. Panic was the nail in the coffin. No bank can or ever will survive that. Without the hysteria they would’ve pulled through.</t>
+        </is>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
         <v>523</v>
       </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>@MichaelSteele @GovRonDeSantis Acc to Ron, every one of the SVB's servers had a woke mind virus and if SVB had been in Florida, this never would have happened.  Well, actually, if trump hadn't loosened Dodd Frank then it might not have, so look in the right place for the cause.</t>
+        </is>
+      </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
         <v>524</v>
       </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>@edwardcurrent @dianabhenriques @seethecoin @JustinWolfers @WSJ My point was subtle but relevant. Her argument was that white men have been in lots of meltdowns.
+I'm on the fence regarding what happened at SVB. But arguing that "diversity" killed SVB is not to say that minorities per se are less competent.</t>
+        </is>
+      </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
         <v>525</v>
       </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>22 of 23 analysts had a buy rating on SVB up until the day it was shuttered. Let that sink in.</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
         <v>526</v>
       </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>REAL story here is how the cabal is carpet-bombing crypto before they roll out their own CBDC digital currency. FTX false flag, SEC goes after exchanges/coins, then suddenly SVB, Silvergate, and Signature close overnight... the TOP 3 crypto banks.  msn.com/en-us/money/pe…</t>
+        </is>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
         <v>527</v>
       </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>An outstanding ESG rating - but no chief risk operator: SVB hired woke board obsessed with diversity, invested $5BN for 'healthier planet' and held monthlong Pride celebration - but failed to spot glaring problems with investments
+mol.im/a/11854497 via @MailOnline</t>
+        </is>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
         <v>528</v>
       </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>The most heavily represented clientele for SVB is Chinese BioTech companies.
+So while you are no longer protected by the FDIC China is getting their deposit payouts.</t>
+        </is>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
         <v>529</v>
       </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>To put this in to context:
+The average deposit at SVB is $2.2M
+The insured amount is set to $250k for each account.
+The FDIC and our government have decided that insurance cap needed to be raised to cover the full amounts without taking any official action.</t>
+        </is>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
         <v>530</v>
       </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Why was trading halted in some banks and will SVB contagion spread? mol.im/a/11855171 via @MailOnline</t>
+        </is>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
         <v>531</v>
       </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>@Cernovich But if there was a Bank that would deny someone for banking based on politics, wouldn't it be SVB?
+So we have to 'save the woke banks to keep the non-work ones around' is an odd take</t>
+        </is>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
         <v>532</v>
       </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>Many Bitcoiners are losing the main plot here with SVB collapse. 
+They are complaining about Fed bailout of depositors. While a decent point, it’s also a petty one. 
+The main point is how Fed caused it in the first place and will continue to do so. @parkeralewis has it right</t>
+        </is>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
         <v>533</v>
       </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>@NewsRacket @captainkudzu SVB failed b/c it made foolish liquidity decisions it didn’t need to make. it had better options; it was arrogant and panicked helped by panicked VC and startup investors.</t>
+        </is>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
         <v>534</v>
       </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Panic and partying reign at #SXSW2023 amid Silicon Valley Bank’s collapse buff.ly/3mOhdkh #SVB https://t.co/xLS9159fbW</t>
+        </is>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
         <v>535</v>
       </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>AND  Peter Thiel  started the run on SVB!</t>
+        </is>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
         <v>536</v>
       </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>@ninaturner @finneas While I agree that student loans should be forgiven, you’ve mischaracterized the court’s role. It’s being challenged *in* court, not *by* the court, but *by* several State Attorneys General.
+Oh, and regarding *SVB* the fed gov did exactly the right thing to prevent a run on banks</t>
+        </is>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
         <v>537</v>
       </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>SVB failin is one of them moments when you look at the other side and think, "they ain't completely crazy"...</t>
+        </is>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
         <v>538</v>
       </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>@LordGem3 @MAD_lines I have. And I would encourage you to do the same. The FDIC is covering all deposits. The treasury doesn’t decide. They are issuing receipts to those that have money not covered by the guarantee, and will pay it out, recouping the cost from liquidating SVB assets.</t>
+        </is>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
         <v>539</v>
       </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>@WallaceBever @NikkiHaley 98% of SVB were BEYOND the $250K.  Don't feel bad for them-- they won't starve.  They took Start-Up risks, signed the papers &amp;amp; will pay it back.  We, the tax payers, will not. (This isn't an opinion)</t>
+        </is>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
         <v>540</v>
       </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>Join @matt_narvaiz for a group chat with some local experts on how the SVB and Signature Bank failures might affect people (and startups and banks) here in New Mexico: abqjournal.com/2581438/group-…</t>
+        </is>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
         <v>541</v>
       </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>#chatsing tells us #BTC has decoupled any correlation with interest rates, equities, commodities, #Biden, or #SVB.
+#openai #BankingCrisis #bankingcollapse #chatgpt #bard #vix https://t.co/x5F4TMWoKo</t>
+        </is>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
         <v>542</v>
       </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>Will be so many  lessons for founders that come out of SVB. Lesson #1 is revenue. Every time I panicked, I remembered that every day we make enough to cover expenses and then a little—and from individuals. No big checks had to clear. Business models are oxygen. Pick a good one.</t>
+        </is>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
         <v>543</v>
       </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Bank Stock Crash Intensifies: Losses Top $185 Billion As Analyst Warns SVB Failure Risks Intense Regulator Scrutiny msn.com/en-us/money/ma…</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
         <v>544</v>
       </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>Venture capitalists weigh SVB salvage operation on.ft.com/3Tf5s24</t>
+        </is>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
         <v>545</v>
       </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>@Carl_Able @NebraskaTyler @glennbeck @sinuous_grace @ConceptualJames In other words, svb had too much liberty, and they used this liberty to make bad decisions. Other banks didn’t.</t>
+        </is>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
         <v>546</v>
       </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>🤔Top exec management of SVB sold off massive assets just prior? https://t.co/I9TSCp3JOz</t>
+        </is>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
         <v>547</v>
       </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>I'd be totally in favor of a public bank, pre-payment of grants, or interest-free loans to awardees to make private banks less essential to climate projects - but SVB was one of the few banks regularly worked with climate projects and emerging tech - who are the alternatives?</t>
+        </is>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
         <v>548</v>
       </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>@RoyDaiber @atrupar His ‘actions’ have already failed. The collapse of SVB is the result of his ‘actions’.</t>
+        </is>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
         <v>549</v>
       </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>$100BN wiped off US banking market in SINGLE DAY as former White House adviser calls it 'tip of the iceberg': Bloodbath on Wall Street saw regional banks fall by up to 60% and the Big Four drawn into SVB's collapse contagion
+dailymail.co.uk/news/article-1…</t>
+        </is>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
         <v>550</v>
       </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>@VladSF If the TechBros can get SVB turned into a slammin' cocktail lounge; can we ask @SecYellen if she can just include THIS bank, too? Downtown Sunnyvale needs more MCM lounges, too! https://t.co/EMCAxvvNiM</t>
+        </is>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
         <v>551</v>
       </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>So blaming diversity initiatives on SVB collapse? If the other side takes over we can forget anything about diversity and equality initiatives in any work place after that</t>
+        </is>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
         <v>552</v>
       </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>Asia markets set to fall tracking Wall Street losses as fallout over SVB lingers cnb.cx/3ZNFupc</t>
+        </is>
+      </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
         <v>553</v>
       </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>Aren’t HSBC set to save SVB though?</t>
+        </is>
+      </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
         <v>554</v>
       </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>Asia markets set to fall tracking Wall Street losses as fallout over SVB lingers cnb.cx/3JzOVTg</t>
+        </is>
+      </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
         <v>555</v>
       </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>@MostlyPeacefull Odd Bidens admin has talked ad nauseam about the rich people with over $250k in SVB but they can't talk about East Palestine Ohio for more than a few quick sentences. Gosh, if only I could put my finger on why?</t>
+        </is>
+      </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
         <v>556</v>
       </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>Read more on what @BobAckerman has to say on #SVB  “Financial support in the form of lines of credit and venture debt is going to become much more difficult [for startups] to come by,"    darkreading.com/risk/svb-meltd…</t>
+        </is>
+      </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
         <v>557</v>
       </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>SVB and Signature nuked In a weekend</t>
+        </is>
+      </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
         <v>558</v>
       </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>SVB impact: Credit markets suddenly price in Bank of Canada rate cuts this year, bond yields plunge</t>
+        </is>
+      </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
         <v>559</v>
       </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>The ASX is down 1.5% this morning, with Bendigo &amp;amp; Adelaide Bank down over 5% - have Australian investors caught US nervousness around 2nd tier banks ?
+#SVB #economy @FinancialReview @theage @australian https://t.co/SlkRHx9OLn</t>
+        </is>
+      </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
         <v>560</v>
       </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>@GerberKawasaki @WholeMarsBlog Does this apply do Bitcoin? Because that's why SVB is open for withdraws today. https://t.co/LEynZWLkbv</t>
+        </is>
+      </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
         <v>561</v>
       </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>@DonaldJTrumpJr SVB failed because your twice impeached failure of a president daddy rolled back banking regulation laws that would have prevented this.#TrumpCult #TrumpisaNationalDisgrace #TrumpCrimeFamily #TrumpIsGuilty</t>
+        </is>
+      </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
         <v>562</v>
       </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>@ToddWaller Right, so the question is, which part of the equation was the true cause of this black swan event....fractionalized banking at its core, no?
+I'm also seeing that SVB would have actually passed a Dodd/Frank stress test, so this isn't the "Trump rollback" either.
+Interesting...</t>
+        </is>
+      </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
         <v>563</v>
       </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>@Upgradez @RubenGallego what does that have to do with stress tests &amp;amp; SVB going out of business?
+or have you missed your meds?</t>
+        </is>
+      </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
         <v>564</v>
       </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>@daniel_foch @Sumskillz @SteveSaretsky Equity and bond holders of SVB were wiped out, so this is 100% correct. It was still a bailout though nonetheless</t>
+        </is>
+      </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
         <v>565</v>
       </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>One may eventually tumble to the reality that SVB failed because of inflation, which depreciated its U.S. Sovereign Debt holdings in Treasury securities. Who caused the inflation? He, who spent recklessly on dross policies. Our president.</t>
+        </is>
+      </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
         <v>566</v>
       </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>No , Braindead Biden , YOU and your party of big spending marxist losers , along with RINO TRAITORS , are 100% to blame for the SVB failure . YOU caused mass inflation , not Donald J. Trump ...... dipshit .</t>
+        </is>
+      </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
         <v>567</v>
       </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>Biden pledges ‘whatever needed’ for U.S. bank system as SVB meltdown roils markets By Reuters reportwire.org/biden-pledges-…</t>
+        </is>
+      </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
         <v>568</v>
       </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>Ooof... And They Deleted The Original Tweet Too! #SVB #AynRand #America #Inflation https://t.co/rlgLXLCh87</t>
+        </is>
+      </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
         <v>569</v>
       </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>$SIVB [15s. delayed]: Issued Press Release on March 13, 19:45:00: Attention SVB Shareholders: KlaymanToskes Has Recovery Options s.flashalert.me/Q8PwsC</t>
+        </is>
+      </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
         <v>570</v>
       </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>Biden pledges 'whatever needed' for U.S. bank system as SVB meltdown roils markets By Reuters #business #news #bbcnat #Follow #happynewyear
+bbcnat.com/business/biden…</t>
+        </is>
+      </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
         <v>571</v>
       </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>@MarioNawfal Folks, would Dodd-Frank actually have prevented the collapse of SVB?</t>
+        </is>
+      </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
         <v>572</v>
       </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>@Robespierring @MikeIsaac 1) I'm not sure the picture you have in your head matches all of the tens of thousands of people and businesses that did business with SVB, and 
+2) you have to acknowledge the risk that letting this companies eat the loss could have consequences for other people, "contagion".</t>
+        </is>
+      </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
         <v>573</v>
       </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>Ironic Biden saying SVB executives will lose their jobs. Big deal. They sold their stock weeks before the collapse. Insider trading. Biden you want to do something? Declare the sales illegal and take their funds to repay depositors. Interesting how key execs preemptively sold…</t>
+        </is>
+      </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
         <v>574</v>
       </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>@TheRealHoarse Yeah, Josh traitor Hawley is out there disavowing SVB’s libertarian, anti-regulation bona fides, and branding it as liberal activist.   What?</t>
+        </is>
+      </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
         <v>575</v>
       </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>Sunrun Has Access to $80 Million That Had Been With SVB: CEO - Bloomberg bloomberg.com/news/articles/…</t>
+        </is>
+      </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
         <v>576</v>
       </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>@musicman4203 Yes, that was the explicit reason for the crisis. But SVB deliberately prioritized DEI and wokeism rather than prudent risk management and its politics was an important reason why it attracted so much tech clientele.</t>
+        </is>
+      </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
         <v>577</v>
       </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>@4AllSoulKind 5 Star Trust. InQTel. Cartels. SVB. FTX.</t>
+        </is>
+      </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
         <v>578</v>
       </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>@Oceaniax2 @BubsSnork @ErenCaner @WallStreetSilv Roku has billions to store, bet this is not their only bank AND I guarantee there was due diligence done. SVB had an extremely high credit rating and long term issuer rating. The agencies whose literal job it is to perform due diligence missed it, and you want startups to do it?</t>
+        </is>
+      </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
         <v>579</v>
       </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>@VlKASPR0NAM0 SVB did wrong and it collapsed. Adani also did wrong and it seems nothing will happen to it. This is the issue with our country.</t>
+        </is>
+      </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
         <v>580</v>
       </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>@SaraEisen Might help their earnings cause THEY WON’T BE OUT OF BUSINESS. How’s SVB earnings doing?</t>
+        </is>
+      </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
         <v>581</v>
       </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>@ZachCWilliams1 @CNN Education is a valuable thing!SVB collapse puts new spotlight on a Trump-era banking law.The failures of SVB and Signature Bank are putting new scrutiny on a 2018 law signed by then President Trump that rolled back some banking regulations. So many problems point back at to Trump</t>
+        </is>
+      </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
         <v>582</v>
       </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>@PimpnShrtSelrs not really , impacts on market usually takes time .. signature bank and svb shutdown , now no one have the balls to consider the idea touching crypto… as a result it will be challenging for the crypto industry … you have to have a bridge from fiat to crypto</t>
+        </is>
+      </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
         <v>583</v>
       </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>@KenH_TN @BillHagertyTN Those rollbacks allowed SVB’s CEO Greg Becker, a $1.8 billion loss on the sale of U.S. treasuries and mortgage-backed securities; Peter Thiel, J.D. Vance &amp;amp; Blake Masters, had their venture capital firms direct all their portfolio companies to withdraw their funds from the bank.</t>
+        </is>
+      </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
         <v>584</v>
       </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>SVB Fallout: 5 Questions You Need to Ask Your CFO Right Now dlvr.it/SkrB1v</t>
+        </is>
+      </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
         <v>585</v>
       </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>A post claims a former Lehman Brothers executive was also a top executive at Silicon Valley Bank. He’s part of SVB Securities, which is independent of the bank. ksdk.com/article/news/v…</t>
+        </is>
+      </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
         <v>586</v>
       </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>The quality of founders and ideas we were seeing Pre SVB was amazing.  Expect to see that further explode given the magnitude of the last few days.  We are going to see some of the greatest companies of our time born during this period created from the turmoil in the early 20’s!</t>
+        </is>
+      </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
         <v>587</v>
       </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>@mario59598224 @sciencerules69 @NoLieWithBTC Wait so where is it that the 2018 legislation affected svb? Why isn't it affecting other banks? I'm still waiting...</t>
+        </is>
+      </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
         <v>588</v>
       </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>SVB collapse puts new spotlight on a 2018 bank deregulation law - Sen. Elizabeth Warren, who led the push against that Trump-era law, now wants to restore those rules on financial institutions. - Amazing. @realDonaldTrump @DineshDSouza @TheLeoTerrell @GOP</t>
+        </is>
+      </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
         <v>589</v>
       </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>@clifkee @NikkiHaley The insurance only covers accounts of $250 K or below….. some of these businesses have 10’s of millions with SVB</t>
+        </is>
+      </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
         <v>590</v>
       </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>@PriusOmega @LynAldenContact Only if you're in the right club, which you are not. 
+The SVB situation is troubling. The Fed/FDIC/Treasury is creating a two-tier system in which political power is wielded at the discretion of incumbents to pick winners &amp;amp; losers. Cantillon^2, money &amp;amp; risk unfairly distributed https://t.co/KOMEFokRRE</t>
+        </is>
+      </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
         <v>591</v>
       </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>@jcAT2014 @HawleyMO Give it up already!  The changes Trump made.to to Dodd-Frank were minor. SVB was the 15th largest bank and the changes didn't apply to them.  The bank balance sheet was lopsided, heavily invested in US Treasuries which are highly susceptible to interest rates.</t>
+        </is>
+      </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
         <v>592</v>
       </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>I am feeling some special version of “things better get better soon or I’m killing” tonight esp with this svb bailout bs and the 3 year anniversary of the pandemic too</t>
+        </is>
+      </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
         <v>593</v>
       </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>SVB’s woes have also put the spotlight back on Republicans and Donald Trump, who repealed sections of the Dodd-Frank banking reform bill in May 2018. It had sought to tighten up the loose lending and risky strategies by financial institutions that caused the Great Recession.</t>
+        </is>
+      </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
         <v>594</v>
       </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>WSJ Makes Ludicrous Suggestion ‘Diverse’ Board May Have Doomed SVB thedailybeast.com/wall-street-jo… via @thedailybeast</t>
+        </is>
+      </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
         <v>595</v>
       </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>Banking contagion spreads in California to First Republic Bank #firstrepublicbank #jeromepowell #bankrun #bankruns #federalreserve #bankingcrisis #siliconevalleybank #svb #bankcollapse #bankfailure #currencycrisis #inflation #hyperinflation #centralbanks #janetyellen #fraction https://t.co/ElEyQXI6Al</t>
+        </is>
+      </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
         <v>596</v>
       </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>Square probably stole my btc so they can pay one of their slaves after SVB debacle lmao</t>
+        </is>
+      </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
         <v>597</v>
       </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>Thank goodness for Treasury, the Fed &amp;amp; the FDIC.
+Meanwhile many on here were screaming about missing payroll right after spiriting ~$60b out in 48hrs &amp;amp; eliminating all of SVB’s optionality.
+Rumor has it that First Repub had 90k+ wire rqsts over the wknd.
+We are our worst enemies.</t>
+        </is>
+      </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
         <v>598</v>
       </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>@Jessicalessin @Freebird10000 @WSJ The article is clear on what Kessler thinks the mistakes SVB made were, and none of them were the racial make up of upper management.  Its called tongue in cheek, considering a clearly incompetent management team with no risk officer in place for most of last year while..</t>
+        </is>
+      </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
         <v>599</v>
       </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>@jimcramer Says the guy who thought SVB was a bit at $280. #firejimcramer</t>
+        </is>
+      </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
         <v>600</v>
       </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>Due to the fact that the people responsible for the SVB bank run will benefit the most from a fed pause, they should hike 100bps</t>
+        </is>
+      </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
         <v>601</v>
       </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>📣 New Podcast! "MONDAY LIVE: Silicon Valley Bank Was The Most Woke Bank Of Them All Funding Green Energies And... - War Room - 2023-Mar 13, Mon" on @Spreaker #1a #infowarswarroom #iso20022 #owenshroyer #svb #usa #warroom #warroomshow spreaker.com/user/realalexj…</t>
+        </is>
+      </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
         <v>602</v>
       </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>For those interested in the maths of $SVB, consider that an increase of 1% in interest rates leads 10 year notes approx. 7.5% lower (starting at 3%). This number is almost proportionately higher for 20 and 30 year treasuries. 
+Since August 2021, 10Y yield has risen 2.4%. https://t.co/Wa2F0ASHn4</t>
+        </is>
+      </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
         <v>603</v>
       </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>@claycane definitely be fired &amp;amp; have no access to golden parachutes. But as an expert, all banks invest in Treasuries to manage their cash position. Nothing illegal was done. The difference is that SVB is not larg3 like the big banks to have to monitor the value of Treasuries</t>
+        </is>
+      </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
         <v>604</v>
       </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>The Anatomy of #SVBCrash|:Why Did #SVB Failed so Spectacularly in Just 48 Hours?#SVBCollapse #SVBUK #svb_financial #svbwarroom #IARTG #Progressives #SNRTG #ProgressiveAlliance #Bankcollapse  #SVBank #Economics #BTRTG #Retweet #Dems #BAnkCrash #BankCrisis   cnn.com/2023/03/13/bus…</t>
+        </is>
+      </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
         <v>605</v>
       </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>Gotta love this.  youtube.com/watch?v=3vkZMb…
+Feb 8, 2023 Cramer recommends SVB, always been a very good business!</t>
+        </is>
+      </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
         <v>606</v>
       </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>@harrisbl79 @WhiteHouse I would go as far as calling the SVB CEO crooked and needs to be investigated</t>
+        </is>
+      </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
         <v>607</v>
       </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>@unusual_whales Seems like SVB as a Bank  had priorities mixed up</t>
+        </is>
+      </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
         <v>608</v>
       </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>@ritholtz SVB had more assets than liabilities so naturally they got „balled out“ - this whole story is ridiculous in so many ways
+The bank simply wasn’t liquid (which of course is equal to defaulting) but if everyone hadn’t taken out their money all at once it wouldn’t have happened</t>
+        </is>
+      </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
         <v>609</v>
       </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>“Now a bank can be irresponsible and say, well we’re not gonna get sued by the depositors because federal gov’s gonna back them up out of this thing.”
+@patrickbetdavid and @TomEllsworth bring the lie of the government to light and explain why the SVB situation is a bailout.… https://t.co/AggqaqWU6I</t>
+        </is>
+      </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
         <v>610</v>
       </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>Why SVB failed 👇 It was Biden.</t>
+        </is>
+      </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
         <v>611</v>
       </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>SVB: Silicon Valley Bank Collapse Raises Concerns Among Nigerian Startups
+techuncode.com/svb-silicon-va…</t>
+        </is>
+      </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
         <v>612</v>
       </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>@MorganOrtagus Republican donor Peter Thiel had millions in SVB.</t>
+        </is>
+      </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
         <v>613</v>
       </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>I know someone at SVB that could use your services.</t>
+        </is>
+      </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
         <v>614</v>
       </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>@HawleyMO SVB are evil woke demon's that are being bailed out by hard working Americans! I say let them reap what they sow ! God help America 🙏</t>
+        </is>
+      </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
         <v>615</v>
       </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>@osamabishounen SVB was converted from a DINB to a bridge after the SRE.
+Pre-SRE they more or less had to hold back the uninsureds, 90% of deposits. 
+The LCT makes it virtually impossible to honor the uninsureds when, by holding them back, they bear 90% of the losses.</t>
+        </is>
+      </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
         <v>616</v>
       </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>@wolfejosh @BillAckman except that "average " American does not have over the $250,000 coverage limit and are protected.  But guess who does? Well Bill disclosed after his strong advice he has "less" than 10% in SVB 🧐</t>
+        </is>
+      </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
         <v>617</v>
       </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>@JohnBoozman You voted to roll back the Dodd-Frank regulations on big banks which could have prevented the collapse of SVB, so no I don't trust what you have to say on regulations.</t>
+        </is>
+      </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
         <v>618</v>
       </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>@jimcramer 
+Nice call SVB, how does crow taste?</t>
+        </is>
+      </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
         <v>619</v>
       </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>@SueDinNY SVB invested its Depositors capital in Securities and interest rate sensitive mortgage packages, then inflation hit and the Fed raised and kept raising interest rates.
+SVB was overexposed and began losing money.
+They sold stock to raise cash and their shares tanked
+Depositors ran</t>
+        </is>
+      </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
         <v>620</v>
       </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>Silicon Valley's 'greed and avarice' have 'finally come home to roost' in SVB collapse, trader says cnb.cx/3LkqjiS</t>
+        </is>
+      </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
         <v>621</v>
       </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>@EricBalchunas I might be more inclined to go with the one that came after the SVB rescue package, rather than the one before it.</t>
+        </is>
+      </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
         <v>622</v>
       </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>🤣🤣🤣 openly unaware that these exact types of investment practices leaf to SVB's downfall lol</t>
+        </is>
+      </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
         <v>623</v>
       </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>@loganbartlett @TheStalwart @markets I think it’s also a stretch to imply SVB depositors as being mom-and-pops. A more accurate accusation is that the venture capitalists and founders were bailed out for being irresponsible enough to keep their deposits in an uninsured account.</t>
+        </is>
+      </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
         <v>624</v>
       </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>#JosephGentile the CAO of #SVB Interesting that; Joseph served  before as the CFO for Lehman Brothers' Global Investment Bank before the collapsing of the bank and he left in 2007, This is truly unusual, Just in case you thought you were bad at your job.😅</t>
+        </is>
+      </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
         <v>625</v>
       </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>@NickAdamsinUSA Banks were becoming flush with cash due to Covid. That influx of cash is partly responsible for SVB’s liquidity problems.</t>
+        </is>
+      </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
         <v>626</v>
       </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>SVB Fallout Spreads Around World From London to Singapore: ow.ly/SByB50NgIk4</t>
+        </is>
+      </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
         <v>627</v>
       </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>@CREGoodGuy @Cokedupoptions SVB? Never heard of them</t>
+        </is>
+      </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
         <v>628</v>
       </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>@donwinslow @Yahoo And FIVE years later, Biden continued to push for higher interest rates that pushed SVB over the cliff.</t>
+        </is>
+      </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
         <v>629</v>
       </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>The FDIC covers all deposits at SVB and Signature Bank — and wipes out deposit insurance cap.  bizjournals.com/milwaukee/news…</t>
+        </is>
+      </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
         <v>630</v>
       </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>The FDIC covers all deposits at SVB and Signature Bank — and wipes out deposit insurance cap.  bizjournals.com/triangle/news/…</t>
+        </is>
+      </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
         <v>631</v>
       </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>@fishahhh @atrupar The distortion of near zero interest rates and the fairly sudden climb to the historic mean crashed the banks bonds as they were very susceptible to rising interest rates. SVB was beyond incompetent without financial risk management for nine months.</t>
+        </is>
+      </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
         <v>632</v>
       </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>The FDIC covers all deposits at SVB and Signature Bank — and wipes out deposit insurance cap.  bizjournals.com/portland/news/…</t>
+        </is>
+      </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
         <v>633</v>
       </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>@laurenboebert CBS Mornings blamed Trump for SVB and Signature Bank failures.</t>
+        </is>
+      </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
         <v>634</v>
       </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>The FDIC covers all deposits at SVB and Signature Bank — and wipes out deposit insurance cap.  bizjournals.com/orlando/news/2…</t>
+        </is>
+      </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
         <v>635</v>
       </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>I knew there were GOP hands on these bank collapses: GOP senators pushed to keep banking rules loose one week before SVB collapse aol.com/finance/gop-se…</t>
+        </is>
+      </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
         <v>636</v>
       </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>The FDIC covers all deposits at SVB and Signature Bank — and wipes out deposit insurance cap.  bizjournals.com/dayton/news/20…</t>
+        </is>
+      </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
         <v>637</v>
       </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>The FDIC covers all deposits at SVB and Signature Bank — and wipes out deposit insurance cap.  bizjournals.com/boston/news/20…</t>
+        </is>
+      </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
         <v>638</v>
       </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>Because of the SVB bank case, the fed wiil not raise its benchmark interest rate and crypto has again soared very sharply https://t.co/OEq7bufKro</t>
+        </is>
+      </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
         <v>639</v>
       </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>With all this SVB stuff going on, should I start putting my money in my mattress?</t>
+        </is>
+      </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
         <v>640</v>
       </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>This piece reminds me of the "immigrant landlords of color" propaganda from a year or two ago.
+NPR spoke to an affluent Black woman CEO &amp;amp; tried to make it seem as if bailing out SVB helps poor Black women. https://t.co/UUn5k86tQO</t>
+        </is>
+      </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
         <v>641</v>
       </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>Dear @elonmusk,
+Please buy or make an offer to buy #SiliconValleyBank ASAP!  Or loan me the funds to buy their debts and own the bank.  It's good investment.  #bailout #bailoutsiliconValleybank #svb #Silicon_Valley_Bank #austinolaie #austinolaiesiliconValleybank</t>
+        </is>
+      </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
         <v>642</v>
       </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>@Neoavatara @blackandgold43 SVB failed because interest rates went up crushing the value of the bonds the bank held coupled with an anemic bond yield for bonds they held. All a response to government recklessly printing money increasing money supply, the definition of inflation. Your govt is responsible!</t>
+        </is>
+      </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
         <v>643</v>
       </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>‘Absolutely idiotic’. SVB insider says employees are angry with CEO : cnn.com/2023/03/13/bus…</t>
+        </is>
+      </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
         <v>644</v>
       </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>@Thingpsy Not only did the words "Master Clinician" make me laugh out loud when I saw this, but with what's going on now with SVB, this advert for a "roadmap to deep and lasting CHANGE" made me think of a certain presidental campaign from a few years ago... https://t.co/K0nzQnDSJB</t>
+        </is>
+      </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
         <v>645</v>
       </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>@StephenM The owners of SVB will get zilch, the depositors will get their own money back, as they should.</t>
+        </is>
+      </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
         <v>646</v>
       </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>After SVB failure, US acts to shore up banking system confidence access-wallstreet.com/biz/after-svb-…</t>
+        </is>
+      </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
         <v>647</v>
       </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>Of my dozenish angel investments only one, @OManolache of @sequel_io emailed while the SVB issue was outstanding as to her situation and plan. Many emailed that all was well once the deposits were guaranteed. I’m a founder so I get it- but know that it’s noticed.</t>
+        </is>
+      </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
         <v>648</v>
       </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>The government should not bail out the SVB disaster.. or any other bank.... stay out of it ...those incompetent morons are responsible for their own demise !!</t>
+        </is>
+      </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
         <v>649</v>
       </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>🚨“Web3 Weekly Alpha”🚨
+EP#5 is out! 
+Cover most of what happened in Web3 last week! 
+-SVB / crypto markets 
+- NFT charts
+- Attack on crypto
+- potential demand/supply 
+- new mints
+- USDC depegging
+- NFT news
+Check it out! 👇🏽
+youtu.be/ha81H4tz08A</t>
+        </is>
+      </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
         <v>650</v>
       </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>@RepSwalwell Bidenflation is the cause   trillions of free money created inflation, forcing the fed to aggressively raise rates destroying bonds which SVB was heavily invested. Not Trump.  ask your China spy</t>
+        </is>
+      </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
         <v>651</v>
       </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>@Kathryn67640150 He don’t have a clue.  Five minutes after he blamed Trump someone had to remind him that the SVB had failed.</t>
+        </is>
+      </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
         <v>652</v>
       </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>@SenWarren @nytopinion Hi Elizabeth - Were there actually any liquidity/capital requirements in Dodd-Frank that would have prevented the run on SVB's deposits?  If so it might be helpful if you elaborated on that.</t>
+        </is>
+      </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
         <v>653</v>
       </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>Were does the government get anything that didnt start with our backs you fucking idiots by the people for the people Banking crisis: President Joe Biden says taxpayer money won't be used to bail out SVB, Signature Bank yahoo.com/news/banking-c…</t>
+        </is>
+      </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
         <v>654</v>
       </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>SVB was a banking system not thinking smart. The choices they made and the freak out of the tech sector/Twitter caused them to fail</t>
+        </is>
+      </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
         <v>655</v>
       </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>@Puncheezee @TheRightMelissa Really? SVB had 1) no chief risk officer for 9 months until 1.5 month ago  2) invested $5B in "healthier planet" 💩 and 3) low interest rate bonds leading up to its collapse, all under the Biden administration. But let's blame Trump for bipartisan bill passed from 5 years ago!</t>
+        </is>
+      </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
         <v>656</v>
       </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>Would bet money that these SVB sob stories are the result of a coordinated effort by SVB to leverage their depositors, complete with recommended language</t>
+        </is>
+      </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
         <v>657</v>
       </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>@SenWarren Nope Pocahontas, it was you and the others progressives who showered the US with dollars, created global inflation which caused the Fed to raise rates. SVB was holding on to long dated treasuries which were devalued. Time for you to “get me a beer.”</t>
+        </is>
+      </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
         <v>658</v>
       </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>EM @elonmusk Multimillionaire Twitter Philanthropist Offers Huge Reward For Whistleblower In SVB Bank Collapse - Pulte - Benzinga news.google.com/rss/articles/C… #elon #elonmusk #twitter</t>
+        </is>
+      </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
         <v>659</v>
       </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>People talking about failure of SVB. Trump bragged about getting rid of regulations in Dodd Frank bill. Which stopped compliance checks that would have prevented the failure because they would have been caught. Did same with train safety regulations way to go 45 shat the bed</t>
+        </is>
+      </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
         <v>660</v>
       </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>#Climate tech was nearly an SVB casualty. What's next for solar and more? - MarketWatch news.google.com/rss/articles/C…</t>
+        </is>
+      </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
         <v>661</v>
       </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>$BILL $ETSY $PTON $ROKU $SIVB $TTD - Stock in Companies With SVB Exposure Are Still Down. Here's Why. news.beeken.io/news-preview?u…</t>
+        </is>
+      </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
         <v>662</v>
       </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>@trevorrowdyreed @MikeTay67395774 @ChuckCallesto Interesting that there is no video showing him do that.  What makes you believe what your leaders tell you instead of what your eyes see?  Want to buy some shares in SVB?  LMAO</t>
+        </is>
+      </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
         <v>663</v>
       </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>SVB Failure Leaves Small US #Solar Projects Needing New Ally (1) - Yahoo Finance news.google.com/rss/articles/C…</t>
+        </is>
+      </c>
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
         <v>664</v>
       </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>@morphzee2022 @Reuters Not going to happen according to the Fed. 
+"Treasury, the Federal Reserve and the Federal Deposit Insurance Corp. said the extraordinary measures they were taking to shore up SVB deposits would not come at taxpayers' expense."nbcnews.com/business/busin…</t>
+        </is>
+      </c>
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
         <v>665</v>
       </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>@LSavigano @_The_Bayou_Boy @POTUS Warren Buffet does and obviously the CEO of SVB does as do the rest of the investors that bailed.
+Just nobodies 🤣🤣🤣🤣</t>
+        </is>
+      </c>
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
         <v>666</v>
       </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>SVB posted 'financial crimes' senior manager job listing just before closure.  #daytrader  #SVB #stockmarketcrash #DayTrading #StockMarcket</t>
+        </is>
+      </c>
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
         <v>667</v>
       </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>.@JoeBiden @POTUS @SpeakerMcCarthy @LeaderMcConnell @SenSchumer @RepJeffries
+The SVB collapse was caused by Joke Biden’s energy policy! https://t.co/v5asbOmxWM</t>
+        </is>
+      </c>
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
         <v>668</v>
       </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>Etsy, other e-commerce companies feel squeeze of SVB collapse
+reuters.com/markets/etsy-o…</t>
+        </is>
+      </c>
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
         <v>669</v>
       </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>@realjenx His treasury dept head was on the SVB board, a small detail that has not even been brought up once by our supposed betters in the media.</t>
+        </is>
+      </c>
     </row>
     <row r="672">
       <c r="A672" s="1" t="n">
         <v>670</v>
       </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>@spectatorindex I feel like all the silicon valley companies that had layoffs might have known what was going to happen to SVB🤔🤔🤔. We shall see in the coming days</t>
+        </is>
+      </c>
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
         <v>671</v>
       </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>The securities class action was filed on behalf of Chandra Vanipenta, who bought SVB shares at what he argues were artificially inflated prices. bit.ly/3J71KD2</t>
+        </is>
+      </c>
     </row>
     <row r="674">
       <c r="A674" s="1" t="n">
         <v>672</v>
       </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>Remember… SVB paid out bonuses before they went bankrupt.  #SVBank #SVB</t>
+        </is>
+      </c>
     </row>
     <row r="675">
       <c r="A675" s="1" t="n">
         <v>673</v>
       </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>@kevinolearytv @svb Go back to fucking SBF’s bed and never get out 🤬🤬🤬🤯🤯</t>
+        </is>
+      </c>
     </row>
     <row r="676">
       <c r="A676" s="1" t="n">
         <v>674</v>
       </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>@wanyeburkett This is true.
+However, there are reasons the VCs pushed (ie effectively required) their portcos to put all their funds at SVB.
+I don’t know the reasons, but I’m sure the VCs were benefiting from the arrangement.</t>
+        </is>
+      </c>
     </row>
     <row r="677">
       <c r="A677" s="1" t="n">
         <v>675</v>
       </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>@ItalianLeopard2 @AdamKinzinger All the Gov has to do is take the bond portfolio and hold to maturity and/or if inflation ever decreases, a  profitable secondary market sale.  The Treasury borrows $ ad infinitum, so doesn't have the short term debt service obligations a cash strapped SVB does.</t>
+        </is>
+      </c>
     </row>
     <row r="678">
       <c r="A678" s="1" t="n">
         <v>676</v>
       </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>@iamtomnash The size of SVB deposits will consume the entirety of FDIC emergency funds...  I sure there aren't any more banks that go under.
+Ohh at least we don't have to worry about the debt ceiling anytime soon too...</t>
+        </is>
+      </c>
     </row>
     <row r="679">
       <c r="A679" s="1" t="n">
         <v>677</v>
       </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>@andrewrsorkin The payroll for my employees was trapped at SVB because my payroll company used them and they had a lot more than $250k in cash at SVB.
+I don't have an account there.
+Thousands of Etsy store owners don't either.
+You saying we got "bailed out"?</t>
+        </is>
+      </c>
     </row>
     <row r="680">
       <c r="A680" s="1" t="n">
         <v>678</v>
       </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>Circle had assets in SVB. SVB was not liquid enough so it needed to sell bonds at a loss because inflation was so high. Bank run and circles exposure caused USDC depegging.  As of now USDC seems to be good. Wouldn't a Decentralized overcollaterized stable coin be better than…</t>
+        </is>
+      </c>
     </row>
     <row r="681">
       <c r="A681" s="1" t="n">
         <v>679</v>
       </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>@FiremanMedium I'm not saying they won't try... But I am saying that already we have begun to build out parallel economy's that won't participate in these systems, and people WILL opt out, uniquely in the US, and it will fall on its face and fail, like SVB just did...</t>
+        </is>
+      </c>
     </row>
     <row r="682">
       <c r="A682" s="1" t="n">
         <v>680</v>
       </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>@VivekGRamaswamy Dude, before last week you never even heard of SVB. Stop talking like you’re the expert.</t>
+        </is>
+      </c>
     </row>
     <row r="683">
       <c r="A683" s="1" t="n">
         <v>681</v>
       </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>@SenWarren Stop lying.
+The rollback had no impact on what happened to SVB
+Its Biden's and the Fed's policies.
+Take responsibility for once in your pathetic, disgusting life.</t>
+        </is>
+      </c>
     </row>
     <row r="684">
       <c r="A684" s="1" t="n">
         <v>682</v>
       </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>@StevenErick1976 @NoLieWithBTC Hyper inflation as a result of covid measures caused SVB to sell off bonds to free up liquidity.
+This then caused a level of market panic leading to its collapse (&amp;amp; others)
+But sure…. Blame Trump or MAGA or whoever you like… hahaha 
+Your assessment is still wrong though.</t>
+        </is>
+      </c>
     </row>
     <row r="685">
       <c r="A685" s="1" t="n">
         <v>683</v>
       </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>@KarstenW @businessbarista @memdotai mem it #svb #economy</t>
+        </is>
+      </c>
     </row>
     <row r="686">
       <c r="A686" s="1" t="n">
         <v>684</v>
       </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>@cal_minor @BarkingToad @DavidSacks @theallinpod @lorakolodny Correct. 
+No one is saying that the failure of his pet bank, SVB, was caused by his hysteria. It's the possibility of contagion.
+"I was screaming about a crisis Friday lunchtime, but I didn't say anything on my podcast until Saturday"
+is a poor defense.</t>
+        </is>
+      </c>
     </row>
     <row r="687">
       <c r="A687" s="1" t="n">
         <v>685</v>
       </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>@ericareport Biden bailing out millionaires and billionaires at SVB.  Generous with other peoples’ money.  Has to keep contributors happy.</t>
+        </is>
+      </c>
     </row>
     <row r="688">
       <c r="A688" s="1" t="n">
         <v>686</v>
       </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>@MikeIsaac yes, if they are in a similar position as svb was. nothing’s free. ¯\_(ツ)_/¯</t>
+        </is>
+      </c>
     </row>
     <row r="689">
       <c r="A689" s="1" t="n">
         <v>687</v>
       </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>@SenWarren There is no correlation between the regulations he reversed and SVB</t>
+        </is>
+      </c>
     </row>
     <row r="690">
       <c r="A690" s="1" t="n">
         <v>688</v>
       </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>$AXSM
+Their SVB story turned out to be nothing burger 
+Only $4M in cash, the rest in other institutions
+axsometherapeuticsinc.gcs-web.com/node/10816/html</t>
+        </is>
+      </c>
     </row>
     <row r="691">
       <c r="A691" s="1" t="n">
         <v>689</v>
       </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>Sell first, ask questions later. 
+Regional banks extend their plunge after the collapse of Silicon Valley Bank and Signature Bank. @scarletfu explains what triggered SVB’s demise trib.al/T3tNTXi https://t.co/6MOKWQcivL</t>
+        </is>
+      </c>
     </row>
     <row r="692">
       <c r="A692" s="1" t="n">
         <v>690</v>
       </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>@lindyli What BS this is. Thiel had a fund there and they decided to pull out after having an issue with transfers. Smart decision, and you are upset?
+SVB is an insanely liberal bank run by liberals. Finally you are complaining with the right side :)</t>
+        </is>
+      </c>
     </row>
     <row r="693">
       <c r="A693" s="1" t="n">
         <v>691</v>
       </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>@RyantheHar @Buffie882 @MattClarkReport Tax increases should be completely off the table. We are already being taxed by inflation on top of what we are already taxed. Rate hikes and condensing the money supply combats inflation, but thanks to SVB that might be on hold now</t>
+        </is>
+      </c>
     </row>
     <row r="694">
       <c r="A694" s="1" t="n">
         <v>692</v>
       </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>@claycane Allen Orr suggested that mgmt of SVB be arrested. As a banker (one of the GOOD ones!), I have to push back. What happened was gross mismanagement of their internal investments, as they invested in Treasuries, which are safe and unlike the 2008-09 recession. They should</t>
+        </is>
+      </c>
     </row>
     <row r="695">
       <c r="A695" s="1" t="n">
         <v>693</v>
       </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>@Carl_Able @NebraskaTyler @glennbeck @sinuous_grace @ConceptualJames The fdic protects 99.99% of bank accounts. Svb was as problematic as it was because so many people had accounts with millions of dollars in it. 
+And that’s a separate problem… people sitting on huge piles of cash instead of investing it.</t>
+        </is>
+      </c>
     </row>
     <row r="696">
       <c r="A696" s="1" t="n">
         <v>694</v>
       </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>@laurenboebert It's not diversity that caused SVB failure, it's incompetence and greed.</t>
+        </is>
+      </c>
     </row>
     <row r="697">
       <c r="A697" s="1" t="n">
         <v>695</v>
       </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>SVB Meltdown: What It Means for Cybersecurity Startups' Access to Capital
+ flip.it/.Og7G4</t>
+        </is>
+      </c>
     </row>
     <row r="698">
       <c r="A698" s="1" t="n">
         <v>696</v>
       </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>They're really going all in on this "Silicon Valley bank was too woke and not paying attention and that's why it failed", huh? Comer was pushing this yesterday, even though Watters has a chyron there about the SVB CEO selling stocks in the run.</t>
+        </is>
+      </c>
     </row>
     <row r="699">
       <c r="A699" s="1" t="n">
         <v>697</v>
       </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>@AlexBerenson The venture cap customers of the SVB started the run knowing that it would cause mayhem. Who gave them the orders and why ????</t>
+        </is>
+      </c>
     </row>
     <row r="700">
       <c r="A700" s="1" t="n">
         <v>698</v>
       </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>What You Need to Know About the Collapse of SVB and Signature
+ flip.it/ZPLPqM</t>
+        </is>
+      </c>
     </row>
     <row r="701">
       <c r="A701" s="1" t="n">
         <v>699</v>
       </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>Not the depositors! It’s not their fault. There are certain bad actors in the SVB who should be held accountable. But like most things in life, Biden will bail out his buddies and leave the innocent behind.</t>
+        </is>
+      </c>
     </row>
     <row r="702">
       <c r="A702" s="1" t="n">
         <v>700</v>
       </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>Disgusting that Joe Biden is trying to blame the SVB bank failure on D. Trump.  Biden ought to look at the women running the bank and their equity-diversity-wokeness focus.  They didn't even bother to replace their Chief Risk Officer for 8 months.  Democrat ineptness caused this.</t>
+        </is>
+      </c>
     </row>
     <row r="703">
       <c r="A703" s="1" t="n">
         <v>701</v>
       </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>@financialjuice SVB CEO was on SF FED board of directors</t>
+        </is>
+      </c>
     </row>
     <row r="704">
       <c r="A704" s="1" t="n">
         <v>702</v>
       </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>@KiltedRef @dbharrison33 @LostInTheCosmo5 @JunkScience @federalreserve them to increase their capital reserves. this essentially tests banks for dangerous levels of risk and forces them to increase capitalization to avoid danger. exactly the kind of thing that would have helped when a bank is facing a bank run like SVB</t>
+        </is>
+      </c>
     </row>
     <row r="705">
       <c r="A705" s="1" t="n">
         <v>703</v>
       </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>@SaltyGoat17 Ya for the UK "SVB" bank and the American bank is owned by SSgA, they own Dominion</t>
+        </is>
+      </c>
     </row>
     <row r="706">
       <c r="A706" s="1" t="n">
         <v>704</v>
       </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>#SiliconValleyBank "You say what I tell you what you have to say"....@sec #SVBCollapse
+#SVB #SVBank 
+@TaraBull808 @unusual_whales @Aeroverland @LawrenceLepard @trvsrdrgz1 @TGS_Trades @MexicApe @KatStryker111 @jhuntermav @salomondrin @DawnDiamondHand</t>
+        </is>
+      </c>
     </row>
     <row r="707">
       <c r="A707" s="1" t="n">
         <v>705</v>
       </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>@AndrewCyberKop Sorry, SVB. They made appropriate moves to sure up their balance sheet, the customers were already spooked because Silvergate and once the run starts it's over fast. It started with shit rate risk management though, not anything to do with VC being dumb... Which they are.</t>
+        </is>
+      </c>
     </row>
     <row r="708">
       <c r="A708" s="1" t="n">
         <v>706</v>
       </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>@DailyCaller How many people were just fired from SVB, big tech, Amazon and Signature bank? military ascension is low and retention is just as bad. Where are these jobs?</t>
+        </is>
+      </c>
     </row>
     <row r="709">
       <c r="A709" s="1" t="n">
         <v>707</v>
       </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>@founderannie @mattmireles @SVB_Financial 🤣🤣 Nice pre-revenue and product. Really nice arrangement.</t>
+        </is>
+      </c>
     </row>
     <row r="710">
       <c r="A710" s="1" t="n">
         <v>708</v>
       </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>@indethought Is this about SVB?</t>
+        </is>
+      </c>
     </row>
     <row r="711">
       <c r="A711" s="1" t="n">
         <v>709</v>
       </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>Silicon Valley Bank client BuzzFeed's stock drops. Majority of its cash with SVB. Is Ellie Hall still employed @Buzzfeed or was Markled too? 😂😂😂
+marketwatch.com/story/buzzfeed…</t>
+        </is>
+      </c>
     </row>
     <row r="712">
       <c r="A712" s="1" t="n">
         <v>710</v>
       </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>monday night, belly soon to be full of red wine thoughts...
+glad the SVB bank run is being handled, and founders will be okay but it was frustrating seeing hysteria play out online this weekend</t>
+        </is>
+      </c>
     </row>
     <row r="713">
       <c r="A713" s="1" t="n">
         <v>711</v>
       </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>Walked by an SVB location in LA today: Two printed copies of this press release taped to the insides of the windows; a TV camera crew outside and two dudes standing outside who said they were with "security."
+fdic.gov/news/press-rel…</t>
+        </is>
+      </c>
     </row>
     <row r="714">
       <c r="A714" s="1" t="n">
         <v>712</v>
       </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>@TwitchyTeam The #TaxTheRich crowd better pay close attention to how Biden handles this one. 👀 #SVB</t>
+        </is>
+      </c>
     </row>
     <row r="715">
       <c r="A715" s="1" t="n">
         <v>713</v>
       </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>That SVB collapse reeks of insider trading...</t>
+        </is>
+      </c>
     </row>
     <row r="716">
       <c r="A716" s="1" t="n">
         <v>714</v>
       </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>Anyone else feel like the federal government is picking winners and losers with banks? Just like the SEC is picking who they sue? Bailing out SVB is going to have serious repercussions when other banks start to fail. I guess it’s Russian roulette on who’s money is in the bank…</t>
+        </is>
+      </c>
     </row>
     <row r="717">
       <c r="A717" s="1" t="n">
         <v>715</v>
       </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>Charles Payne :  Make no mistake , what Biden did today is bail out SILICON VALLEY ~ there are no 'hard working small businesses' at SVB .   
+Only Big-Tech/Hollywood Elites and CCP/Chinese Venture Capitalists had their money at Silicon Valley Bank .
+  youtu.be/3xOw_sfqZIU</t>
+        </is>
+      </c>
     </row>
     <row r="718">
       <c r="A718" s="1" t="n">
         <v>716</v>
       </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>Then they put a guy from a Palantir company in charge of SVB. For real? # lnkd.in/gUfyHb6g</t>
+        </is>
+      </c>
     </row>
     <row r="719">
       <c r="A719" s="1" t="n">
         <v>717</v>
       </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>@JeffCra90281000 Blame lies with SVB execs and bank regulators... In that order. Founders were not the culprits here</t>
+        </is>
+      </c>
     </row>
     <row r="720">
       <c r="A720" s="1" t="n">
         <v>718</v>
       </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>@mrduste23 @SecYellen ukraine stands, SVB falls</t>
+        </is>
+      </c>
     </row>
     <row r="721">
       <c r="A721" s="1" t="n">
         <v>719</v>
       </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>Zelensky can bail out SVB for their depositors. 🤪</t>
+        </is>
+      </c>
     </row>
     <row r="722">
       <c r="A722" s="1" t="n">
         <v>720</v>
       </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>BuzzFeed says most of cash and cash equivalents held at SVB - worldfin.news/buzzfeed-says-… #businessnews #finance #marketnews https://t.co/rlLuSv7kgZ</t>
+        </is>
+      </c>
     </row>
     <row r="723">
       <c r="A723" s="1" t="n">
         <v>721</v>
       </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>@PeterZeihan SVB's failure had nothing to do with crypto. Nor does Silvergate's failure prove that crypto has no value.</t>
+        </is>
+      </c>
     </row>
     <row r="724">
       <c r="A724" s="1" t="n">
         <v>722</v>
       </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>@POTUS Your high inflation is why did SVB in.  Stop the bullshit Brandon</t>
+        </is>
+      </c>
     </row>
     <row r="725">
       <c r="A725" s="1" t="n">
         <v>723</v>
       </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>@BryanDawsonUSA Have you taken a look at the size and holding amounts of the banks that failed under Trump. Perhaps you didn't read that SVB was among the top 20 American commercial banks, with $209 billion in total assets at the end of last year. In the top 20 in the country. Huge.</t>
+        </is>
+      </c>
     </row>
     <row r="726">
       <c r="A726" s="1" t="n">
         <v>724</v>
       </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>Thanks to @pmarca and @a16z for hustling and taking care of their startups (and their employees) during this #SVB mess.</t>
+        </is>
+      </c>
     </row>
     <row r="727">
       <c r="A727" s="1" t="n">
         <v>725</v>
       </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>Venture capitalists weigh SVB salvage operation partnerpaysninga.com/venture-capita…</t>
+        </is>
+      </c>
     </row>
     <row r="728">
       <c r="A728" s="1" t="n">
         <v>726</v>
       </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>@Forrest85919134 @NebraskaTyler @glennbeck @sinuous_grace @ConceptualJames In 2023, SVB and SB, go into melt down mode as a result of placing their depositors funds into single sector investment funds that tanked in value when interest rates increased.</t>
+        </is>
+      </c>
     </row>
     <row r="729">
       <c r="A729" s="1" t="n">
         <v>727</v>
       </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>As far as I can tell SVB took in a wave of deposits in 20-21 (good!), ramped up loans (good! -- banks are supposed to do this!), and then also piled a bunch of it into 10yr bonds ( And stuck with them. Without hedging. At very low yields. Bad bad bad bad bad!)</t>
+        </is>
+      </c>
     </row>
     <row r="730">
       <c r="A730" s="1" t="n">
         <v>728</v>
       </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>Republicans Have Found a Familiar Explanation For SVB Collapse hedged.media/politics/repub…</t>
+        </is>
+      </c>
     </row>
     <row r="731">
       <c r="A731" s="1" t="n">
         <v>729</v>
       </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>@o2bnobx If only SVB hadn’t been such a woke Bank. I’m so tired of the woke companies in the financial services sector.</t>
+        </is>
+      </c>
     </row>
     <row r="732">
       <c r="A732" s="1" t="n">
         <v>730</v>
       </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>Private Equity Giant Talks to VC Firms About SVB Bid
+#technology #technologynews #technews
+theinformation.com/articles/priva…</t>
+        </is>
+      </c>
     </row>
     <row r="733">
       <c r="A733" s="1" t="n">
         <v>731</v>
       </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>Republicans Have Found a Familiar Explanation For SVB Collapse hedged.media/politics/repub…</t>
+        </is>
+      </c>
     </row>
     <row r="734">
       <c r="A734" s="1" t="n">
         <v>732</v>
       </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>@laurenboebert "America is suffering from a crisis of incompetence.
+We’re seeing it now with the failure of SVB."
+No, we've seen it since you took office.</t>
+        </is>
+      </c>
     </row>
     <row r="735">
       <c r="A735" s="1" t="n">
         <v>733</v>
       </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>@BoSnerdley Perhaps Mark has a lot of unsecured money in SVB, what do you think?</t>
+        </is>
+      </c>
     </row>
     <row r="736">
       <c r="A736" s="1" t="n">
         <v>734</v>
       </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>@HawleyMO @DamianRanger1 You mean "SVB woke clowns".</t>
+        </is>
+      </c>
     </row>
     <row r="737">
       <c r="A737" s="1" t="n">
         <v>735</v>
       </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>Private Equity Giant Talks to VC Firms About SVB Bid dlvr.it/Skr9ss</t>
+        </is>
+      </c>
     </row>
     <row r="738">
       <c r="A738" s="1" t="n">
         <v>736</v>
       </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>Anyone given a bonus from SVB need to give it back if bank wants anything resembling a bailout.</t>
+        </is>
+      </c>
     </row>
     <row r="739">
       <c r="A739" s="1" t="n">
         <v>737</v>
       </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>@laurenboebert How did SVB put "diversity above competence." Please explain exactly what you mean. (I bet you can't.)</t>
+        </is>
+      </c>
     </row>
     <row r="740">
       <c r="A740" s="1" t="n">
         <v>738</v>
       </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>@yashleohh @Travelgoi @scubas84 @johnrich How did Dems cause the SVB failure?</t>
+        </is>
+      </c>
     </row>
     <row r="741">
       <c r="A741" s="1" t="n">
         <v>739</v>
       </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>NBC: "Let's be clear. The failure of SVB is a direct result of an absurd 2018 bank deregulation bill signed by Trump that I strongly opposed," Sen Bernie Sanders said in a statement. - Same with the rail accident. Trump keeps reaching back to cause problems. @realDonaldTrump</t>
+        </is>
+      </c>
     </row>
     <row r="742">
       <c r="A742" s="1" t="n">
         <v>740</v>
       </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>@hilaryagro Why not? The funding used to keep SVB and Signature bank account holders safe is not coming from taxpayer money but an already existing insurance payment banks are forced to pay. They paid insurance for this. You did not pay insurance for your loans.</t>
+        </is>
+      </c>
     </row>
     <row r="743">
       <c r="A743" s="1" t="n">
         <v>741</v>
       </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>@newdougman @Huly16609302 @nilocobau @HeadwaysMatter @bklyngap Oh, G-d damn it.
+twitter.com/bklyngap/statu…</t>
+        </is>
+      </c>
     </row>
     <row r="744">
       <c r="A744" s="1" t="n">
         <v>742</v>
       </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>Yes, The Latest Bank Bailout Is Really A Bailout: And You Are Paying For It - OpEd
+eurasiareview.com/14032023-yes-t…
+Silicon Valley Bank (SVB) failed on Friday and was shut down by regulators. It was the second-largest failure in US history and the first since the global financial cris... https://t.co/CdGD3iW1No</t>
+        </is>
+      </c>
     </row>
     <row r="745">
       <c r="A745" s="1" t="n">
         <v>743</v>
       </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>@JoohnChoe all their stock although JPM did sell some and downgraded their "buy" recommendation.
+SVB sold assets at a loss to shore up the capital position and was going to raise funds to cover those losses on the sale. Again, no sell-off of SVB's stock.
+So what killed SVB if it wasn't</t>
+        </is>
+      </c>
     </row>
     <row r="746">
       <c r="A746" s="1" t="n">
         <v>744</v>
       </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>@KyleBumpus @MsMelChen @VivekGRamaswamy Couldn't get past the paywall?
+Here's @EWErickson, another person who retweeted Vivek in agreement. For those who don't subscribe to WSJ, he summed up Viveks point that ESG entanglements affected SVB's ability to respond in the face of headwinds.
+twitter.com/EWErickson/sta…</t>
+        </is>
+      </c>
     </row>
     <row r="747">
       <c r="A747" s="1" t="n">
         <v>745</v>
       </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>@POTUS Then you should step down &amp;amp; take Kamala with you. YOUR inflation &amp;amp; high interest rates are what sank SVB. Hold YOURSELF accountable. @SpeakerMcCarthy can fix the mess you created.</t>
+        </is>
+      </c>
     </row>
     <row r="748">
       <c r="A748" s="1" t="n">
         <v>746</v>
       </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>@GerberKawasaki Let's send thank you notes to the reckless SVB C-Suite and the regulators</t>
+        </is>
+      </c>
     </row>
     <row r="749">
       <c r="A749" s="1" t="n">
         <v>747</v>
       </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>Hey I’m writing a big think piece on SVB. I’m an economic historian that understands tech sector very well. 
+Offering up rights to it if a publisher wants to DM me. Otherwise I’ll self publish. 
+Please share :)</t>
+        </is>
+      </c>
     </row>
     <row r="750">
       <c r="A750" s="1" t="n">
         <v>748</v>
       </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>@POTUS @POTUS, you have accepted $39,000 from SVB employees to get you elected.  Will you donate that or are you going to keep that money?</t>
+        </is>
+      </c>
     </row>
     <row r="751">
       <c r="A751" s="1" t="n">
         <v>749</v>
       </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>While Republicans blaming WOKENESS on the SVB COLLAPSE the fact is the Republican billionaires like Thiel created the Chaos first by withdrawing millions then yelling FIRE￼.</t>
+        </is>
+      </c>
     </row>
     <row r="752">
       <c r="A752" s="1" t="n">
         <v>750</v>
       </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>Hey Tim @SenatorTimScott how did this work out for you. The 2018 law loosening Regulations caused these Bank Failures. #MAGAMorons 
+GOP senators pushed to keep banking rules loose one week before SVB collapse news.yahoo.com/gop-senators-p… via @YahooNews</t>
+        </is>
+      </c>
     </row>
     <row r="753">
       <c r="A753" s="1" t="n">
         <v>751</v>
       </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>@jimcramer This is a massive bailout to the VC funds with deposit accounts at SVB and SBNY. Taxpayers will pay for this through higher inflation as the Fed backstops these losses.</t>
+        </is>
+      </c>
     </row>
     <row r="754">
       <c r="A754" s="1" t="n">
         <v>752</v>
       </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>@williamlegate @MarioNawfal @unusual_whales @WhalesGuru @jimcramer @litcapital @Cokedupoptions @AutismCapital Jim Cramer: Still long on SVB.</t>
+        </is>
+      </c>
     </row>
     <row r="755">
       <c r="A755" s="1" t="n">
         <v>753</v>
       </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>@POTUS SVB bank put WOKEISM before risk and that’s one of the reasons they failed. Following DEI is a death sentence to everything. That’s why ignorant Democrats are pushing it, to destroy America. All this WOKE IDOCY should be flushed down the toilet with the crap that goes down there!</t>
+        </is>
+      </c>
     </row>
     <row r="756">
       <c r="A756" s="1" t="n">
         <v>754</v>
       </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>@JoohnChoe SVB went down because they didn't hedge interest date risk on their long-term mortgage assets and the replacement cost of their liquid assets.
+This caused SVB to suffer paper losses to their capital position. This was public knowledge in December. No analysts or investors dumped</t>
+        </is>
+      </c>
     </row>
     <row r="757">
       <c r="A757" s="1" t="n">
         <v>755</v>
       </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>@TMFScottP @Jules46398072 @pfh007 It’s not broken. What’s broken is popular understanding, attachment to piggybank money theory. SVB depositors not understanding FDIC. “Taxpayers money” eloquence reinforcing inequality and kneecapping govt.</t>
+        </is>
+      </c>
     </row>
     <row r="758">
       <c r="A758" s="1" t="n">
         <v>756</v>
       </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>@MorganOrtagus @MariaBartiromo When did you sell your soul and give up any actual financial market awareness?  SVB was flipping bonds and that sent a flag out that venture cap republicans like Peter Thiel didn’t like so he called all his buddies to pull out!  You know better but sit stupid when Comer says Woke</t>
+        </is>
+      </c>
     </row>
     <row r="759">
       <c r="A759" s="1" t="n">
         <v>757</v>
       </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>As projected earlier - Venture capitalists weigh SVB salvage operation  on.ft.com/3Jhnxbt</t>
+        </is>
+      </c>
     </row>
     <row r="760">
       <c r="A760" s="1" t="n">
         <v>758</v>
       </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>A round of applause for the SVB investment committee - “stunning and brave” LOL! https://t.co/QZVUIryl7K</t>
+        </is>
+      </c>
     </row>
     <row r="761">
       <c r="A761" s="1" t="n">
         <v>759</v>
       </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>After SI and SVB, it is widely believed that First Republic Bank may become the third bank to fail. Similar to SVB, First Republic presents a large gap between the fair market value of its assets and the value of its balance sheet. https://t.co/pjVInZg8QB</t>
+        </is>
+      </c>
     </row>
     <row r="762">
       <c r="A762" s="1" t="n">
         <v>760</v>
       </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>@BrandonScargo @_Cool_wHip @PoliticsLayman @_TheLongOne_ @unusual_whales I mean, I don't really know that the daily mail is right wing, but even if that were the case, do we know it's provably false? Because multiple sources are citing the abject abandonment of risk management to be key to the issue with SVB.</t>
+        </is>
+      </c>
     </row>
     <row r="763">
       <c r="A763" s="1" t="n">
         <v>761</v>
       </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>@catedempsey @RyanWil62993886 Don't know, but when I was a turnaround CEO, my focus was a few months out.
+Yes, I tried to think strategically, but 3 years was a lifetime away.
+Doesn't alter your point - SVB management made some immensely stupid decisions.</t>
+        </is>
+      </c>
     </row>
     <row r="764">
       <c r="A764" s="1" t="n">
         <v>762</v>
       </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>CAPITALIZING ON DEBT:
+Goldman Bought SVB’s Underwater Debt Before Bank Run
+Goldman Sachs bought the portfolio of underwater securities from SVB that crystallized a nearly $2 billion loss at the now-failed bank, according to people familiar with the wsj.com/livecoverage/s…… https://t.co/neZfgRiSni</t>
+        </is>
+      </c>
     </row>
     <row r="765">
       <c r="A765" s="1" t="n">
         <v>763</v>
       </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>EU Reportedly Crafting Its Own Foreign Agents Bill Days After Slamming Georgian Parliament
+However, the Federal Reserves' rate hikes policy was adopted in March 2022 and obviously did not come as a bolt from the blue for the SVB.</t>
+        </is>
+      </c>
     </row>
     <row r="766">
       <c r="A766" s="1" t="n">
         <v>764</v>
       </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>@lindyli Thiel really set everyone up.  He may have made a fortune going short SVB. Still know proven link to a short sale that I am aware of.</t>
+        </is>
+      </c>
     </row>
     <row r="767">
       <c r="A767" s="1" t="n">
         <v>765</v>
       </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>Why SVB and Signature Bank failed so fast bit.ly/3JDLSd0</t>
+        </is>
+      </c>
     </row>
     <row r="768">
       <c r="A768" s="1" t="n">
         <v>766</v>
       </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>@CryptoGodJohn Signature didn't collapse tho. SVB didn't really either... ?</t>
+        </is>
+      </c>
     </row>
     <row r="769">
       <c r="A769" s="1" t="n">
         <v>767</v>
       </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>@ChrisGr15823088 @dbharrison33 @LostInTheCosmo5 @JunkScience @federalreserve Here is a question.  who was more reckless, SVB and their investments in long term Federal Securities, or the FED, who essentially gave away free money with ultra low interest rates, and then raised them, ignoring that the bonds they sold earlier were becoming worthless?</t>
+        </is>
+      </c>
     </row>
     <row r="770">
       <c r="A770" s="1" t="n">
         <v>768</v>
       </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>@Jessicalessin @BurnMass @WSJ What @Burnmass points to is partially true, But from an editorial perspective it's a disaster. The author points out a lack of focus and clueless ness of SVB 's Governance, as incompétence rather than specific individuals. But the wording is blatant.</t>
+        </is>
+      </c>
     </row>
     <row r="771">
       <c r="A771" s="1" t="n">
         <v>769</v>
       </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>@newdougman @Huly16609302 @nilocobau @HeadwaysMatter @bklyngap Hey, Doug, you know how to become a millionaire, right?</t>
+        </is>
+      </c>
     </row>
     <row r="772">
       <c r="A772" s="1" t="n">
         <v>770</v>
       </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>@SenWarren No SVB went into a liquidity crisis when they put too much cash into low interest bonds, and then thanks to increased interest rates, had to sell those bonds at a loss to cover the cash withdrawals.  I will say one thing in your favor, you living up to your name, Lie-a-watha.</t>
+        </is>
+      </c>
     </row>
     <row r="773">
       <c r="A773" s="1" t="n">
         <v>771</v>
       </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>@SullyCNBC listing to you show about SVB what about the rating agencies</t>
+        </is>
+      </c>
     </row>
     <row r="774">
       <c r="A774" s="1" t="n">
         <v>772</v>
       </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>@soultripper @leadlagreport That was the solvency problem at svb. Maybe fasb will evaluate if banks need to be prohibited from classifying debt securities (not loans they originated) as htm and thus measuring at amortized cost.</t>
+        </is>
+      </c>
     </row>
     <row r="775">
       <c r="A775" s="1" t="n">
         <v>773</v>
       </c>
-    </row>
-    <row r="776">
-      <c r="A776" s="1" t="n">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="777">
-      <c r="A777" s="1" t="n">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="778">
-      <c r="A778" s="1" t="n">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="779">
-      <c r="A779" s="1" t="n">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="780">
-      <c r="A780" s="1" t="n">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="781">
-      <c r="A781" s="1" t="n">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="782">
-      <c r="A782" s="1" t="n">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="783">
-      <c r="A783" s="1" t="n">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="784">
-      <c r="A784" s="1" t="n">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="785">
-      <c r="A785" s="1" t="n">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="786">
-      <c r="A786" s="1" t="n">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="787">
-      <c r="A787" s="1" t="n">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="788">
-      <c r="A788" s="1" t="n">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="789">
-      <c r="A789" s="1" t="n">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="790">
-      <c r="A790" s="1" t="n">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="791">
-      <c r="A791" s="1" t="n">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="792">
-      <c r="A792" s="1" t="n">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="793">
-      <c r="A793" s="1" t="n">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="794">
-      <c r="A794" s="1" t="n">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="795">
-      <c r="A795" s="1" t="n">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="796">
-      <c r="A796" s="1" t="n">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="797">
-      <c r="A797" s="1" t="n">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="798">
-      <c r="A798" s="1" t="n">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="799">
-      <c r="A799" s="1" t="n">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="800">
-      <c r="A800" s="1" t="n">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="801">
-      <c r="A801" s="1" t="n">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="802">
-      <c r="A802" s="1" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="803">
-      <c r="A803" s="1" t="n">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="804">
-      <c r="A804" s="1" t="n">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="805">
-      <c r="A805" s="1" t="n">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="806">
-      <c r="A806" s="1" t="n">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="807">
-      <c r="A807" s="1" t="n">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="808">
-      <c r="A808" s="1" t="n">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="809">
-      <c r="A809" s="1" t="n">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="810">
-      <c r="A810" s="1" t="n">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="811">
-      <c r="A811" s="1" t="n">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="812">
-      <c r="A812" s="1" t="n">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="813">
-      <c r="A813" s="1" t="n">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="814">
-      <c r="A814" s="1" t="n">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="815">
-      <c r="A815" s="1" t="n">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="816">
-      <c r="A816" s="1" t="n">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="817">
-      <c r="A817" s="1" t="n">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="818">
-      <c r="A818" s="1" t="n">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="819">
-      <c r="A819" s="1" t="n">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="820">
-      <c r="A820" s="1" t="n">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="821">
-      <c r="A821" s="1" t="n">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="822">
-      <c r="A822" s="1" t="n">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="823">
-      <c r="A823" s="1" t="n">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="824">
-      <c r="A824" s="1" t="n">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="825">
-      <c r="A825" s="1" t="n">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="826">
-      <c r="A826" s="1" t="n">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="827">
-      <c r="A827" s="1" t="n">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="828">
-      <c r="A828" s="1" t="n">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="829">
-      <c r="A829" s="1" t="n">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="830">
-      <c r="A830" s="1" t="n">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="831">
-      <c r="A831" s="1" t="n">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="832">
-      <c r="A832" s="1" t="n">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="833">
-      <c r="A833" s="1" t="n">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="834">
-      <c r="A834" s="1" t="n">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="835">
-      <c r="A835" s="1" t="n">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="836">
-      <c r="A836" s="1" t="n">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="837">
-      <c r="A837" s="1" t="n">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="838">
-      <c r="A838" s="1" t="n">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="839">
-      <c r="A839" s="1" t="n">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="840">
-      <c r="A840" s="1" t="n">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="841">
-      <c r="A841" s="1" t="n">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="842">
-      <c r="A842" s="1" t="n">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="843">
-      <c r="A843" s="1" t="n">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="844">
-      <c r="A844" s="1" t="n">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="845">
-      <c r="A845" s="1" t="n">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="846">
-      <c r="A846" s="1" t="n">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="847">
-      <c r="A847" s="1" t="n">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="848">
-      <c r="A848" s="1" t="n">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="849">
-      <c r="A849" s="1" t="n">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="850">
-      <c r="A850" s="1" t="n">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="851">
-      <c r="A851" s="1" t="n">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="852">
-      <c r="A852" s="1" t="n">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="853">
-      <c r="A853" s="1" t="n">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="854">
-      <c r="A854" s="1" t="n">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="855">
-      <c r="A855" s="1" t="n">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="856">
-      <c r="A856" s="1" t="n">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="857">
-      <c r="A857" s="1" t="n">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="858">
-      <c r="A858" s="1" t="n">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="859">
-      <c r="A859" s="1" t="n">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="860">
-      <c r="A860" s="1" t="n">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="861">
-      <c r="A861" s="1" t="n">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="862">
-      <c r="A862" s="1" t="n">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="863">
-      <c r="A863" s="1" t="n">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="864">
-      <c r="A864" s="1" t="n">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="865">
-      <c r="A865" s="1" t="n">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="866">
-      <c r="A866" s="1" t="n">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="867">
-      <c r="A867" s="1" t="n">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="868">
-      <c r="A868" s="1" t="n">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="869">
-      <c r="A869" s="1" t="n">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="870">
-      <c r="A870" s="1" t="n">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="871">
-      <c r="A871" s="1" t="n">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="872">
-      <c r="A872" s="1" t="n">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="873">
-      <c r="A873" s="1" t="n">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="874">
-      <c r="A874" s="1" t="n">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="875">
-      <c r="A875" s="1" t="n">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="876">
-      <c r="A876" s="1" t="n">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="877">
-      <c r="A877" s="1" t="n">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="878">
-      <c r="A878" s="1" t="n">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="879">
-      <c r="A879" s="1" t="n">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="880">
-      <c r="A880" s="1" t="n">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="881">
-      <c r="A881" s="1" t="n">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="882">
-      <c r="A882" s="1" t="n">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="883">
-      <c r="A883" s="1" t="n">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="884">
-      <c r="A884" s="1" t="n">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="885">
-      <c r="A885" s="1" t="n">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="886">
-      <c r="A886" s="1" t="n">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="887">
-      <c r="A887" s="1" t="n">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="888">
-      <c r="A888" s="1" t="n">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="889">
-      <c r="A889" s="1" t="n">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="890">
-      <c r="A890" s="1" t="n">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="891">
-      <c r="A891" s="1" t="n">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="892">
-      <c r="A892" s="1" t="n">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="893">
-      <c r="A893" s="1" t="n">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="894">
-      <c r="A894" s="1" t="n">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="895">
-      <c r="A895" s="1" t="n">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="896">
-      <c r="A896" s="1" t="n">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="897">
-      <c r="A897" s="1" t="n">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="898">
-      <c r="A898" s="1" t="n">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="899">
-      <c r="A899" s="1" t="n">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="900">
-      <c r="A900" s="1" t="n">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="901">
-      <c r="A901" s="1" t="n">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="902">
-      <c r="A902" s="1" t="n">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="903">
-      <c r="A903" s="1" t="n">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="904">
-      <c r="A904" s="1" t="n">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="905">
-      <c r="A905" s="1" t="n">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="906">
-      <c r="A906" s="1" t="n">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="907">
-      <c r="A907" s="1" t="n">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="908">
-      <c r="A908" s="1" t="n">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="909">
-      <c r="A909" s="1" t="n">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="910">
-      <c r="A910" s="1" t="n">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="911">
-      <c r="A911" s="1" t="n">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="912">
-      <c r="A912" s="1" t="n">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="913">
-      <c r="A913" s="1" t="n">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="914">
-      <c r="A914" s="1" t="n">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="915">
-      <c r="A915" s="1" t="n">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="916">
-      <c r="A916" s="1" t="n">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="917">
-      <c r="A917" s="1" t="n">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="918">
-      <c r="A918" s="1" t="n">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="919">
-      <c r="A919" s="1" t="n">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="920">
-      <c r="A920" s="1" t="n">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="921">
-      <c r="A921" s="1" t="n">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="922">
-      <c r="A922" s="1" t="n">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="923">
-      <c r="A923" s="1" t="n">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="924">
-      <c r="A924" s="1" t="n">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="925">
-      <c r="A925" s="1" t="n">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="926">
-      <c r="A926" s="1" t="n">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="927">
-      <c r="A927" s="1" t="n">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="928">
-      <c r="A928" s="1" t="n">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="929">
-      <c r="A929" s="1" t="n">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="930">
-      <c r="A930" s="1" t="n">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="931">
-      <c r="A931" s="1" t="n">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="932">
-      <c r="A932" s="1" t="n">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="933">
-      <c r="A933" s="1" t="n">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="934">
-      <c r="A934" s="1" t="n">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="935">
-      <c r="A935" s="1" t="n">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="936">
-      <c r="A936" s="1" t="n">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="937">
-      <c r="A937" s="1" t="n">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="938">
-      <c r="A938" s="1" t="n">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="939">
-      <c r="A939" s="1" t="n">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="940">
-      <c r="A940" s="1" t="n">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="941">
-      <c r="A941" s="1" t="n">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="942">
-      <c r="A942" s="1" t="n">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="943">
-      <c r="A943" s="1" t="n">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="944">
-      <c r="A944" s="1" t="n">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="945">
-      <c r="A945" s="1" t="n">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="946">
-      <c r="A946" s="1" t="n">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="947">
-      <c r="A947" s="1" t="n">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="948">
-      <c r="A948" s="1" t="n">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="949">
-      <c r="A949" s="1" t="n">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="950">
-      <c r="A950" s="1" t="n">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="951">
-      <c r="A951" s="1" t="n">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="952">
-      <c r="A952" s="1" t="n">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="953">
-      <c r="A953" s="1" t="n">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="954">
-      <c r="A954" s="1" t="n">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="955">
-      <c r="A955" s="1" t="n">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="956">
-      <c r="A956" s="1" t="n">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="957">
-      <c r="A957" s="1" t="n">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="958">
-      <c r="A958" s="1" t="n">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="959">
-      <c r="A959" s="1" t="n">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="960">
-      <c r="A960" s="1" t="n">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="961">
-      <c r="A961" s="1" t="n">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="962">
-      <c r="A962" s="1" t="n">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="963">
-      <c r="A963" s="1" t="n">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="964">
-      <c r="A964" s="1" t="n">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="965">
-      <c r="A965" s="1" t="n">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="966">
-      <c r="A966" s="1" t="n">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="967">
-      <c r="A967" s="1" t="n">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="968">
-      <c r="A968" s="1" t="n">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="969">
-      <c r="A969" s="1" t="n">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="970">
-      <c r="A970" s="1" t="n">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="971">
-      <c r="A971" s="1" t="n">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="972">
-      <c r="A972" s="1" t="n">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="973">
-      <c r="A973" s="1" t="n">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="974">
-      <c r="A974" s="1" t="n">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="975">
-      <c r="A975" s="1" t="n">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="976">
-      <c r="A976" s="1" t="n">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="977">
-      <c r="A977" s="1" t="n">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="978">
-      <c r="A978" s="1" t="n">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="979">
-      <c r="A979" s="1" t="n">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="980">
-      <c r="A980" s="1" t="n">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="981">
-      <c r="A981" s="1" t="n">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="982">
-      <c r="A982" s="1" t="n">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="983">
-      <c r="A983" s="1" t="n">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="984">
-      <c r="A984" s="1" t="n">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="985">
-      <c r="A985" s="1" t="n">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="986">
-      <c r="A986" s="1" t="n">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="987">
-      <c r="A987" s="1" t="n">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="988">
-      <c r="A988" s="1" t="n">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="989">
-      <c r="A989" s="1" t="n">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="990">
-      <c r="A990" s="1" t="n">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="991">
-      <c r="A991" s="1" t="n">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="992">
-      <c r="A992" s="1" t="n">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="993">
-      <c r="A993" s="1" t="n">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="994">
-      <c r="A994" s="1" t="n">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="995">
-      <c r="A995" s="1" t="n">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="996">
-      <c r="A996" s="1" t="n">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="997">
-      <c r="A997" s="1" t="n">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="998">
-      <c r="A998" s="1" t="n">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="999">
-      <c r="A999" s="1" t="n">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="1000">
-      <c r="A1000" s="1" t="n">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="1001">
-      <c r="A1001" s="1" t="n">
-        <v>999</v>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>@MScottMcCulloug @DolioJ I must respectfully disagree with the sentiment from todays show.  I’ve repeatedly said that the coming crisis will be a financial one a la JWR’s “Patriots” right down to it being called “The Crunch.” SVB was just the early start. More to come.</t>
+        </is>
       </c>
     </row>
   </sheetData>
